--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8833BBD-027A-46BD-89D8-18C5C746FD36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6EDD2E-7503-4015-BB7E-D09B987CAAF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21804" windowHeight="8796" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
@@ -1612,7 +1612,7 @@
   <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6EDD2E-7503-4015-BB7E-D09B987CAAF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88825058-7B60-48C8-A30B-F90B99CAA522}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21804" windowHeight="8796" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="55">
   <si>
     <t>Scenario</t>
   </si>
@@ -598,18 +598,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -632,26 +623,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -679,6 +655,31 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,6 +687,46 @@
   <dxfs count="28">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1152,46 +1193,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1211,64 +1212,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81A43794-36BA-4286-8E57-EB145D3C24A9}" name="Table2" displayName="Table2" ref="A11:AJ26" totalsRowShown="0" headerRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81A43794-36BA-4286-8E57-EB145D3C24A9}" name="Table2" displayName="Table2" ref="A11:AJ26" totalsRowShown="0" headerRowBorderDxfId="27">
   <autoFilter ref="A11:AJ26" xr:uid="{EADF17A0-5E30-4FE3-83F3-2800BBF336EF}"/>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{78AFA492-E6FF-4096-97CB-AA643430005E}" name="Number" dataDxfId="25"/>
-    <tableColumn id="25" xr3:uid="{DBD7BBAF-99BA-4975-8C5F-FF7CA363176B}" name="Model" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{78AFA492-E6FF-4096-97CB-AA643430005E}" name="Number" dataDxfId="26"/>
+    <tableColumn id="25" xr3:uid="{DBD7BBAF-99BA-4975-8C5F-FF7CA363176B}" name="Model" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{8470D36B-4741-4F6B-B919-3B503AFF0FE0}" name="trainC"/>
     <tableColumn id="24" xr3:uid="{A5D3391A-6176-4310-B5C2-1283D2F19408}" name="giveC"/>
     <tableColumn id="75" xr3:uid="{45AC95CA-6711-47DD-B635-50391FF7DBD9}" name="n_rand"/>
     <tableColumn id="76" xr3:uid="{4A33FF65-1677-4763-A178-A1A68171D5F8}" name="n_total"/>
     <tableColumn id="74" xr3:uid="{76A10300-7776-4ACC-806F-FE613C5EF4B2}" name="pre_ep"/>
     <tableColumn id="73" xr3:uid="{091000F4-E804-4A38-8A32-4F53DC9E93EE}" name="epochs"/>
-    <tableColumn id="5" xr3:uid="{0285A612-E62D-432A-A5CE-805ABF08A8DC}" name="lp_min" dataDxfId="23">
+    <tableColumn id="5" xr3:uid="{0285A612-E62D-432A-A5CE-805ABF08A8DC}" name="lp_min" dataDxfId="24">
       <calculatedColumnFormula>10^-6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3FDCD35D-8848-45BE-A011-16BC477CF6E2}" name="lp_max" dataDxfId="22">
+    <tableColumn id="6" xr3:uid="{3FDCD35D-8848-45BE-A011-16BC477CF6E2}" name="lp_max" dataDxfId="23">
       <calculatedColumnFormula>10^-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6B452DF6-EDA0-4DCB-9662-5DAD6563F31A}" name="a1_min" dataDxfId="21">
+    <tableColumn id="7" xr3:uid="{6B452DF6-EDA0-4DCB-9662-5DAD6563F31A}" name="a1_min" dataDxfId="22">
       <calculatedColumnFormula>10^-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{91EA8E24-E5C1-4AE0-9214-9FEBC4A2FA61}" name="a1_max" dataDxfId="20">
+    <tableColumn id="8" xr3:uid="{91EA8E24-E5C1-4AE0-9214-9FEBC4A2FA61}" name="a1_max" dataDxfId="21">
       <calculatedColumnFormula>10^3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AC1EB24A-75BF-4ED6-84A2-D9E7E0CCA92C}" name="i1_min" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{BE2E2F26-C076-4C75-A158-1B9AD3ACEE10}" name="i1_max" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{D534B48E-0EE8-4165-88E1-0621D36C813E}" name="lr_min" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{AC1EB24A-75BF-4ED6-84A2-D9E7E0CCA92C}" name="i1_min" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{BE2E2F26-C076-4C75-A158-1B9AD3ACEE10}" name="i1_max" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{D534B48E-0EE8-4165-88E1-0621D36C813E}" name="lr_min" dataDxfId="18">
       <calculatedColumnFormula>10^-7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D985F1DB-08C4-495D-9AB8-B34C5CEF3B30}" name="lr_max" dataDxfId="16">
+    <tableColumn id="12" xr3:uid="{D985F1DB-08C4-495D-9AB8-B34C5CEF3B30}" name="lr_max" dataDxfId="17">
       <calculatedColumnFormula>10^-3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{1F62EC6C-202F-44ED-A855-F71C412EBDC5}" name="l1_min" dataDxfId="15">
+    <tableColumn id="47" xr3:uid="{1F62EC6C-202F-44ED-A855-F71C412EBDC5}" name="l1_min" dataDxfId="16">
       <calculatedColumnFormula>10^-6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{8A9CD75F-5985-46DF-9D95-7275ACACA68E}" name="l1_max" dataDxfId="14">
+    <tableColumn id="48" xr3:uid="{8A9CD75F-5985-46DF-9D95-7275ACACA68E}" name="l1_max" dataDxfId="15">
       <calculatedColumnFormula>10^-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{12D93BD7-5A8F-4557-B46A-203A8DF391C1}" name="l2_min" dataDxfId="13">
+    <tableColumn id="49" xr3:uid="{12D93BD7-5A8F-4557-B46A-203A8DF391C1}" name="l2_min" dataDxfId="14">
       <calculatedColumnFormula>10^-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" xr3:uid="{4D3A199E-B4A3-4279-B793-AB3978ECE31A}" name="l2_max" dataDxfId="12">
+    <tableColumn id="50" xr3:uid="{4D3A199E-B4A3-4279-B793-AB3978ECE31A}" name="l2_max" dataDxfId="13">
       <calculatedColumnFormula>10^-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="51" xr3:uid="{169D2A90-BBA3-40A4-BE42-EDAE87E2815B}" name="l3_min" dataDxfId="11"/>
-    <tableColumn id="52" xr3:uid="{2FE7FC08-7AC9-44CE-A841-E0ECC39D4A75}" name="l3_max" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{92277B1E-35F8-4642-A793-4D178BD0E235}" name="a2_min" dataDxfId="9">
+    <tableColumn id="51" xr3:uid="{169D2A90-BBA3-40A4-BE42-EDAE87E2815B}" name="l3_min" dataDxfId="12"/>
+    <tableColumn id="52" xr3:uid="{2FE7FC08-7AC9-44CE-A841-E0ECC39D4A75}" name="l3_max" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{92277B1E-35F8-4642-A793-4D178BD0E235}" name="a2_min" dataDxfId="10">
       <calculatedColumnFormula>10^-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{3AC55395-DA11-438E-91AF-1DC0DACF179B}" name="a2_max" dataDxfId="8">
+    <tableColumn id="14" xr3:uid="{3AC55395-DA11-438E-91AF-1DC0DACF179B}" name="a2_max" dataDxfId="9">
       <calculatedColumnFormula>10^3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7193F3EB-8EDC-40FB-933B-14EF280D9D41}" name="i2_min" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{BA3456F6-6CBB-4EA5-BEF5-E28A97E4FC52}" name="i2_max" dataDxfId="6"/>
-    <tableColumn id="53" xr3:uid="{79D6EC1B-5DFA-4F4C-BC94-D49D26645698}" name="error" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{7193F3EB-8EDC-40FB-933B-14EF280D9D41}" name="i2_min" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{BA3456F6-6CBB-4EA5-BEF5-E28A97E4FC52}" name="i2_max" dataDxfId="7"/>
+    <tableColumn id="53" xr3:uid="{79D6EC1B-5DFA-4F4C-BC94-D49D26645698}" name="error" dataDxfId="6"/>
     <tableColumn id="54" xr3:uid="{559635E0-2BE9-4016-95B4-246431349D7C}" name="lr_prtr"/>
-    <tableColumn id="55" xr3:uid="{583F6650-C708-4DC8-88C0-E2E2EEBD4F23}" name="alph1" dataDxfId="4"/>
-    <tableColumn id="56" xr3:uid="{AFA9A5D2-0A51-40C8-AF2B-600191D73653}" name="iter1" dataDxfId="3"/>
-    <tableColumn id="57" xr3:uid="{748E0574-A02A-401F-BDA3-1F32FAE29A42}" name="learnr" dataDxfId="2"/>
+    <tableColumn id="55" xr3:uid="{583F6650-C708-4DC8-88C0-E2E2EEBD4F23}" name="alph1" dataDxfId="5"/>
+    <tableColumn id="56" xr3:uid="{AFA9A5D2-0A51-40C8-AF2B-600191D73653}" name="iter1" dataDxfId="4"/>
+    <tableColumn id="57" xr3:uid="{748E0574-A02A-401F-BDA3-1F32FAE29A42}" name="learnr" dataDxfId="3"/>
     <tableColumn id="58" xr3:uid="{755E59BB-0EE2-4FE2-84B2-054EE5B67348}" name="lamb1"/>
     <tableColumn id="59" xr3:uid="{60F91526-2124-414B-B5CC-61AAEE97C014}" name="lamb2"/>
     <tableColumn id="60" xr3:uid="{9153B781-FB9A-49DD-8474-A1624972B667}" name="lamb3"/>
@@ -1283,7 +1284,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81A51915-D99D-4859-85C1-557C273A617F}" name="Table3" displayName="Table3" ref="A1:C2" totalsRowShown="0">
   <autoFilter ref="A1:C2" xr:uid="{FB39D890-0BF6-441A-B212-6EC912A0CDAA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6664A9F6-2D81-459A-8170-A97971809FB5}" name="Parameter" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{6664A9F6-2D81-459A-8170-A97971809FB5}" name="Parameter" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{8015C4E0-DACB-462B-A494-00631B9B1C67}" name="Dataset"/>
     <tableColumn id="5" xr3:uid="{5942BF33-B200-491E-BDB5-A6F51047AB49}" name="opt_func"/>
   </tableColumns>
@@ -1611,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3BE8-5908-4BE5-BD92-5B34615E80E7}">
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,48 +1628,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="O1" s="53" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="52" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
@@ -1677,7 +1678,7 @@
       <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="52" t="s">
         <v>51</v>
       </c>
       <c r="G2">
@@ -1724,7 +1725,7 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:O3" si="0">10^2</f>
+        <f t="shared" ref="H3:N3" si="0">10^2</f>
         <v>100</v>
       </c>
       <c r="I3">
@@ -1757,83 +1758,83 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="14">
         <f>G3/2</f>
         <v>50</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="14">
         <f t="shared" ref="H4:O4" si="1">H3/2</f>
         <v>50</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="14">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="14">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="14">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="14">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="14">
         <f>G4/2</f>
         <v>25</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="14">
         <f t="shared" ref="H5" si="2">H4/2</f>
         <v>25</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="14">
         <f t="shared" ref="I5" si="3">I4/2</f>
         <v>2.5</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="14">
         <f t="shared" ref="J5" si="4">J4/2</f>
         <v>25</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="14">
         <f t="shared" ref="K5" si="5">K4/2</f>
         <v>25</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="14">
         <f t="shared" ref="L5" si="6">L4/2</f>
         <v>25</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="14">
         <f t="shared" ref="M5" si="7">M4/2</f>
         <v>25</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="14">
         <f t="shared" ref="N5" si="8">N4/2</f>
         <v>25</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="14">
         <f t="shared" ref="O5" si="9">O4/2</f>
         <v>2.5</v>
       </c>
@@ -1842,1269 +1843,1361 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="27" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="36" t="s">
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="57"/>
     </row>
     <row r="11" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="P11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="26" t="s">
+      <c r="Q11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="26" t="s">
+      <c r="R11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="26" t="s">
+      <c r="S11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="26" t="s">
+      <c r="T11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="26" t="s">
+      <c r="U11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="26" t="s">
+      <c r="V11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="W11" s="8" t="s">
+      <c r="W11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="X11" s="8" t="s">
+      <c r="X11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y11" s="8" t="s">
+      <c r="Y11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="9" t="s">
+      <c r="Z11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="37" t="s">
+      <c r="AA11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AB11" s="10" t="s">
+      <c r="AB11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AC11" s="23" t="s">
+      <c r="AC11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AD11" s="23" t="s">
+      <c r="AD11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AE11" s="10" t="s">
+      <c r="AE11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AF11" s="10" t="s">
+      <c r="AF11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AG11" s="10" t="s">
+      <c r="AG11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AH11" s="10" t="s">
+      <c r="AH11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AI11" s="10" t="s">
+      <c r="AI11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AJ11" s="10" t="s">
+      <c r="AJ11" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="9">
         <v>160</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <v>1600</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="20">
+      <c r="I12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="17">
         <f>H$2/H$3</f>
         <v>1</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="17">
         <f>H$2*H$3</f>
         <v>10000</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="17">
         <f>I$2/I$3</f>
         <v>2</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="17">
         <f>I$2*I$3</f>
         <v>200</v>
       </c>
-      <c r="O12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="V12" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="X12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z12" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
+      <c r="O12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>5.0694444399999997E-2</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC12" s="21">
+        <v>1.0596679786398899</v>
+      </c>
+      <c r="AD12" s="21">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="C13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="9">
         <v>160</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="9">
         <v>1600</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="9">
         <v>1000</v>
       </c>
       <c r="H13">
         <v>250</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="24">
         <f t="shared" ref="I13:I16" si="10">G$2/G$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="17">
         <f t="shared" ref="J13:J16" si="11">G$2*G$3</f>
         <v>0.01</v>
       </c>
-      <c r="K13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="31">
+      <c r="K13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="25">
         <f t="shared" ref="O13:O16" si="12">J$2/J$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="P13" s="32">
+      <c r="P13" s="26">
         <f t="shared" ref="P13:P16" si="13">J$2*J$3</f>
         <v>0.01</v>
       </c>
-      <c r="Q13" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="33">
+      <c r="Q13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="27">
         <f t="shared" ref="S13:S16" si="14">L$2/L$3</f>
         <v>1E-3</v>
       </c>
-      <c r="T13" s="33">
+      <c r="T13" s="27">
         <f t="shared" ref="T13:T16" si="15">L$2*L$3</f>
         <v>10</v>
       </c>
-      <c r="U13" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="V13" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W13" s="30">
+      <c r="U13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13" s="24">
         <f t="shared" ref="W13:W16" si="16">N$2/N$3</f>
         <v>1</v>
       </c>
-      <c r="X13" s="20">
+      <c r="X13" s="17">
         <f t="shared" ref="X13:X16" si="17">N$2*N$3</f>
         <v>10000</v>
       </c>
-      <c r="Y13" s="20">
+      <c r="Y13" s="17">
         <f t="shared" ref="Y13:Y16" si="18">O$2/O$3</f>
         <v>2</v>
       </c>
-      <c r="Z13" s="34">
+      <c r="Z13" s="28">
         <f t="shared" ref="Z13:Z16" si="19">O$2*O$3</f>
         <v>200</v>
       </c>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="12" t="b">
+      <c r="C14" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="12" t="b">
+      <c r="D14" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>160</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="9">
         <v>1600</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="9">
         <v>1000</v>
       </c>
       <c r="H14">
         <v>250</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="24">
         <f t="shared" si="10"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="17">
         <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
-      <c r="K14" s="20">
-        <f t="shared" ref="K13:K16" si="20">H$2/H$3</f>
+      <c r="K14" s="17">
+        <f t="shared" ref="K14:K16" si="20">H$2/H$3</f>
         <v>1</v>
       </c>
-      <c r="L14" s="20">
-        <f t="shared" ref="L13:L16" si="21">H$2*H$3</f>
+      <c r="L14" s="17">
+        <f t="shared" ref="L14:L16" si="21">H$2*H$3</f>
         <v>10000</v>
       </c>
-      <c r="M14" s="20">
-        <f t="shared" ref="M13:M16" si="22">I$2/I$3</f>
+      <c r="M14" s="17">
+        <f t="shared" ref="M14:M16" si="22">I$2/I$3</f>
         <v>2</v>
       </c>
-      <c r="N14" s="20">
-        <f t="shared" ref="N13:N16" si="23">I$2*I$3</f>
+      <c r="N14" s="17">
+        <f t="shared" ref="N14:N16" si="23">I$2*I$3</f>
         <v>200</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="25">
         <f t="shared" si="12"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="26">
         <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
-      <c r="Q14" s="33">
-        <f t="shared" ref="Q13:Q16" si="24">K$2/K$3</f>
+      <c r="Q14" s="27">
+        <f t="shared" ref="Q14:Q16" si="24">K$2/K$3</f>
         <v>0.01</v>
       </c>
-      <c r="R14" s="33">
-        <f t="shared" ref="R13:R16" si="25">K$2*K$3</f>
+      <c r="R14" s="27">
+        <f t="shared" ref="R14:R16" si="25">K$2*K$3</f>
         <v>100</v>
       </c>
-      <c r="S14" s="33">
+      <c r="S14" s="27">
         <f t="shared" si="14"/>
         <v>1E-3</v>
       </c>
-      <c r="T14" s="33">
+      <c r="T14" s="27">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="U14" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="V14" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W14" s="30">
+      <c r="U14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="V14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W14" s="24">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="X14" s="20">
+      <c r="X14" s="17">
         <f t="shared" si="17"/>
         <v>10000</v>
       </c>
-      <c r="Y14" s="20">
+      <c r="Y14" s="17">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="Z14" s="34">
+      <c r="Z14" s="28">
         <f t="shared" si="19"/>
         <v>200</v>
       </c>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="15">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="12" t="b">
+      <c r="C15" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="12" t="b">
+      <c r="D15" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="9">
         <v>160</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="9">
         <v>1600</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="9">
         <v>1000</v>
       </c>
       <c r="H15">
         <v>250</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="24">
         <f t="shared" si="10"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="17">
         <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="17">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="17">
         <f t="shared" si="21"/>
         <v>10000</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="17">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="17">
         <f t="shared" si="23"/>
         <v>200</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="25">
         <f t="shared" si="12"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="26">
         <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="27">
         <f t="shared" si="24"/>
         <v>0.01</v>
       </c>
-      <c r="R15" s="33">
+      <c r="R15" s="27">
         <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="S15" s="33">
+      <c r="S15" s="27">
         <f t="shared" si="14"/>
         <v>1E-3</v>
       </c>
-      <c r="T15" s="33">
+      <c r="T15" s="27">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="U15" s="33">
-        <f t="shared" ref="U13:U16" si="26">M$2/M$3</f>
+      <c r="U15" s="27">
+        <f t="shared" ref="U15:U16" si="26">M$2/M$3</f>
         <v>10</v>
       </c>
-      <c r="V15" s="33">
-        <f t="shared" ref="V13:V16" si="27">M$2*M$3</f>
+      <c r="V15" s="27">
+        <f t="shared" ref="V15:V16" si="27">M$2*M$3</f>
         <v>100000</v>
       </c>
-      <c r="W15" s="30">
+      <c r="W15" s="24">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="X15" s="20">
+      <c r="X15" s="17">
         <f t="shared" si="17"/>
         <v>10000</v>
       </c>
-      <c r="Y15" s="20">
+      <c r="Y15" s="17">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="Z15" s="34">
+      <c r="Z15" s="28">
         <f t="shared" si="19"/>
         <v>200</v>
       </c>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="47">
+      <c r="A16" s="39">
         <v>13</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="49" t="b">
+      <c r="C16" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="49" t="b">
+      <c r="D16" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="41">
         <v>160</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="41">
         <v>1600</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="41">
         <v>1000</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="41">
         <v>250</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="42">
         <f t="shared" si="10"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="40">
         <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="40">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="40">
         <f t="shared" si="21"/>
         <v>10000</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="40">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="40">
         <f t="shared" si="23"/>
         <v>200</v>
       </c>
-      <c r="O16" s="51">
+      <c r="O16" s="43">
         <f t="shared" si="12"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="P16" s="52">
+      <c r="P16" s="44">
         <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
-      <c r="Q16" s="53">
+      <c r="Q16" s="45">
         <f t="shared" si="24"/>
         <v>0.01</v>
       </c>
-      <c r="R16" s="53">
+      <c r="R16" s="45">
         <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="S16" s="53">
+      <c r="S16" s="45">
         <f t="shared" si="14"/>
         <v>1E-3</v>
       </c>
-      <c r="T16" s="53">
+      <c r="T16" s="45">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="U16" s="53">
+      <c r="U16" s="45">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="V16" s="53">
+      <c r="V16" s="45">
         <f t="shared" si="27"/>
         <v>100000</v>
       </c>
-      <c r="W16" s="50">
+      <c r="W16" s="42">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="X16" s="48">
+      <c r="X16" s="40">
         <f t="shared" si="17"/>
         <v>10000</v>
       </c>
-      <c r="Y16" s="48">
+      <c r="Y16" s="40">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="Z16" s="54">
+      <c r="Z16" s="46">
         <f t="shared" si="19"/>
         <v>200</v>
       </c>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="49"/>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="49"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>14</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="9">
         <v>40</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="9">
         <v>400</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H17" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q17" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="U17" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="V17" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="W17" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="X17" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y17" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z17" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="39"/>
+      <c r="I17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="31">
+        <f>AC12/H$4</f>
+        <v>2.1193359572797797E-2</v>
+      </c>
+      <c r="L17" s="31">
+        <f>AC12*H$4</f>
+        <v>52.983398931994493</v>
+      </c>
+      <c r="M17" s="31">
+        <f>MAX(2, ROUND(AD12/I$4, 0))</f>
+        <v>2</v>
+      </c>
+      <c r="N17" s="31">
+        <f>ROUND(AD12*I$4, 0)</f>
+        <v>25</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="V17" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="X17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA17" s="10">
+        <v>5.0694444399999997E-2</v>
+      </c>
+      <c r="AB17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC17" s="38">
+        <v>0.91990114979458104</v>
+      </c>
+      <c r="AD17" s="38">
+        <v>19</v>
+      </c>
+      <c r="AE17" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="11">
         <v>15</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="C18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9">
         <v>40</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="9">
         <v>400</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="9">
         <v>4000</v>
       </c>
       <c r="H18">
         <v>1000</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="V18" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="W18" s="30"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="39"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W18" s="24"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="31"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="12" t="b">
+      <c r="C19" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="D19" s="12" t="b">
+      <c r="D19" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>40</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="9">
         <v>400</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="9">
         <v>4000</v>
       </c>
       <c r="H19">
         <v>1000</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="V19" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="W19" s="30"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="39"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="V19" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W19" s="24"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="31"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+      <c r="A20" s="15">
         <v>17</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="12" t="b">
+      <c r="C20" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="D20" s="12" t="b">
+      <c r="D20" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="9">
         <v>40</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="9">
         <v>400</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="9">
         <v>4000</v>
       </c>
       <c r="H20">
         <v>1000</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="39"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="31"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="47">
+      <c r="A21" s="39">
         <v>18</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="49" t="b">
+      <c r="C21" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="49" t="b">
+      <c r="D21" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="41">
         <v>40</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="41">
         <v>400</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="41">
         <v>4000</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="41">
         <v>1000</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="49"/>
-      <c r="AH21" s="49"/>
-      <c r="AI21" s="49"/>
-      <c r="AJ21" s="49"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="8">
         <v>19</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="C22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="9">
         <v>10</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="9">
         <v>100</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H22" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="U22" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="V22" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="W22" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="X22" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y22" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z22" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="39"/>
+      <c r="I22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="31">
+        <f>AC17/H$5</f>
+        <v>3.6796045991783238E-2</v>
+      </c>
+      <c r="L22" s="31">
+        <f>AC17*H$5</f>
+        <v>22.997528744864525</v>
+      </c>
+      <c r="M22" s="31">
+        <f>MAX(2, ROUND(AD17/I$5, 0))</f>
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <f>ROUND(AD17*I$5, 0)</f>
+        <v>48</v>
+      </c>
+      <c r="O22" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="V22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="X22" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y22" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z22" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA22" s="64">
+        <v>6.6962527199969398E-8</v>
+      </c>
+      <c r="AB22" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC22" s="38">
+        <v>0.99622897002084099</v>
+      </c>
+      <c r="AD22" s="38">
+        <v>11</v>
+      </c>
+      <c r="AE22" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF22" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+      <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="C23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="9">
         <v>10</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="9">
         <v>100</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="9">
         <v>16000</v>
       </c>
       <c r="H23">
         <v>4000</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="O23" s="31"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="V23" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="W23" s="30"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="39"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" s="25"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="V23" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W23" s="24"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="31"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="12" t="b">
+      <c r="C24" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="12" t="b">
+      <c r="D24" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="9">
         <v>10</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="9">
         <v>100</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="9">
         <v>16000</v>
       </c>
       <c r="H24">
         <v>4000</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="V24" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="W24" s="30"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="39"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="V24" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W24" s="24"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="31"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="A25" s="15">
         <v>22</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="12" t="b">
+      <c r="C25" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="12" t="b">
+      <c r="D25" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="9">
         <v>10</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="9">
         <v>100</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="9">
         <v>16000</v>
       </c>
       <c r="H25">
         <v>4000</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="39"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="31"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
-        <v>23</v>
-      </c>
-      <c r="B26" s="30" t="s">
+      <c r="A26" s="16">
+        <v>23</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="12" t="b">
+      <c r="C26" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="D26" s="12" t="b">
+      <c r="D26" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="9">
         <v>10</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="9">
         <v>100</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="9">
         <v>16000</v>
       </c>
       <c r="H26">
         <v>4000</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88825058-7B60-48C8-A30B-F90B99CAA522}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004767A0-5FE6-49A0-99C6-A5E86FD766EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21804" windowHeight="8796" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
@@ -655,6 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,7 +680,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1612,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3BE8-5908-4BE5-BD92-5B34615E80E7}">
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1843,47 +1843,47 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="56" t="s">
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="57"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="58"/>
     </row>
     <row r="11" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -2948,7 +2948,7 @@
       <c r="Z22" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AA22" s="64">
+      <c r="AA22" s="56">
         <v>6.6962527199969398E-8</v>
       </c>
       <c r="AB22" s="31" t="s">

--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004767A0-5FE6-49A0-99C6-A5E86FD766EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FBF1B3-77E1-47DD-AAC5-E362D64ABA78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21804" windowHeight="8796" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
+    <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="52">
   <si>
     <t>Scenario</t>
   </si>
@@ -69,24 +69,12 @@
     <t>a1_max</t>
   </si>
   <si>
-    <t>i1_min</t>
-  </si>
-  <si>
-    <t>i1_max</t>
-  </si>
-  <si>
     <t>a2_min</t>
   </si>
   <si>
     <t>a2_max</t>
   </si>
   <si>
-    <t>i2_min</t>
-  </si>
-  <si>
-    <t>i2_max</t>
-  </si>
-  <si>
     <t>run_model</t>
   </si>
   <si>
@@ -156,9 +144,6 @@
     <t>alph1</t>
   </si>
   <si>
-    <t>iter1</t>
-  </si>
-  <si>
     <t>lamb1</t>
   </si>
   <si>
@@ -171,9 +156,6 @@
     <t>alph2</t>
   </si>
   <si>
-    <t>iter2</t>
-  </si>
-  <si>
     <t>learnr</t>
   </si>
   <si>
@@ -190,13 +172,22 @@
   </si>
   <si>
     <t>Range 2</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>i1/i2</t>
+  </si>
+  <si>
+    <t>Model size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +209,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +284,12 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -373,30 +377,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -594,32 +574,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -627,42 +626,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,20 +664,69 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="25">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -808,42 +850,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -851,33 +857,6 @@
         <right/>
         <vertical/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1139,20 +1118,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1212,102 +1177,96 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81A43794-36BA-4286-8E57-EB145D3C24A9}" name="Table2" displayName="Table2" ref="A11:AJ26" totalsRowShown="0" headerRowBorderDxfId="27">
-  <autoFilter ref="A11:AJ26" xr:uid="{EADF17A0-5E30-4FE3-83F3-2800BBF336EF}"/>
-  <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{78AFA492-E6FF-4096-97CB-AA643430005E}" name="Number" dataDxfId="26"/>
-    <tableColumn id="25" xr3:uid="{DBD7BBAF-99BA-4975-8C5F-FF7CA363176B}" name="Model" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81A43794-36BA-4286-8E57-EB145D3C24A9}" name="Table2" displayName="Table2" ref="A11:AE26" totalsRowShown="0" headerRowBorderDxfId="24">
+  <autoFilter ref="A11:AE26" xr:uid="{EADF17A0-5E30-4FE3-83F3-2800BBF336EF}"/>
+  <tableColumns count="31">
+    <tableColumn id="1" xr3:uid="{78AFA492-E6FF-4096-97CB-AA643430005E}" name="Number" dataDxfId="23"/>
+    <tableColumn id="25" xr3:uid="{DBD7BBAF-99BA-4975-8C5F-FF7CA363176B}" name="Model" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{8470D36B-4741-4F6B-B919-3B503AFF0FE0}" name="trainC"/>
     <tableColumn id="24" xr3:uid="{A5D3391A-6176-4310-B5C2-1283D2F19408}" name="giveC"/>
     <tableColumn id="75" xr3:uid="{45AC95CA-6711-47DD-B635-50391FF7DBD9}" name="n_rand"/>
-    <tableColumn id="76" xr3:uid="{4A33FF65-1677-4763-A178-A1A68171D5F8}" name="n_total"/>
+    <tableColumn id="76" xr3:uid="{4A33FF65-1677-4763-A178-A1A68171D5F8}" name="n_total" dataDxfId="0"/>
     <tableColumn id="74" xr3:uid="{76A10300-7776-4ACC-806F-FE613C5EF4B2}" name="pre_ep"/>
     <tableColumn id="73" xr3:uid="{091000F4-E804-4A38-8A32-4F53DC9E93EE}" name="epochs"/>
-    <tableColumn id="5" xr3:uid="{0285A612-E62D-432A-A5CE-805ABF08A8DC}" name="lp_min" dataDxfId="24">
+    <tableColumn id="3" xr3:uid="{CBD08D3B-C331-4129-A127-D68EB51CFF6E}" name="i1/i2" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{0285A612-E62D-432A-A5CE-805ABF08A8DC}" name="lp_min" dataDxfId="21">
       <calculatedColumnFormula>10^-6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3FDCD35D-8848-45BE-A011-16BC477CF6E2}" name="lp_max" dataDxfId="23">
+    <tableColumn id="6" xr3:uid="{3FDCD35D-8848-45BE-A011-16BC477CF6E2}" name="lp_max" dataDxfId="20">
       <calculatedColumnFormula>10^-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6B452DF6-EDA0-4DCB-9662-5DAD6563F31A}" name="a1_min" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{6B452DF6-EDA0-4DCB-9662-5DAD6563F31A}" name="a1_min" dataDxfId="19">
       <calculatedColumnFormula>10^-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{91EA8E24-E5C1-4AE0-9214-9FEBC4A2FA61}" name="a1_max" dataDxfId="21">
+    <tableColumn id="8" xr3:uid="{91EA8E24-E5C1-4AE0-9214-9FEBC4A2FA61}" name="a1_max" dataDxfId="18">
       <calculatedColumnFormula>10^3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AC1EB24A-75BF-4ED6-84A2-D9E7E0CCA92C}" name="i1_min" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{BE2E2F26-C076-4C75-A158-1B9AD3ACEE10}" name="i1_max" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{D534B48E-0EE8-4165-88E1-0621D36C813E}" name="lr_min" dataDxfId="18">
+    <tableColumn id="11" xr3:uid="{D534B48E-0EE8-4165-88E1-0621D36C813E}" name="lr_min" dataDxfId="17">
       <calculatedColumnFormula>10^-7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D985F1DB-08C4-495D-9AB8-B34C5CEF3B30}" name="lr_max" dataDxfId="17">
+    <tableColumn id="12" xr3:uid="{D985F1DB-08C4-495D-9AB8-B34C5CEF3B30}" name="lr_max" dataDxfId="16">
       <calculatedColumnFormula>10^-3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{1F62EC6C-202F-44ED-A855-F71C412EBDC5}" name="l1_min" dataDxfId="16">
+    <tableColumn id="47" xr3:uid="{1F62EC6C-202F-44ED-A855-F71C412EBDC5}" name="l1_min" dataDxfId="15">
       <calculatedColumnFormula>10^-6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{8A9CD75F-5985-46DF-9D95-7275ACACA68E}" name="l1_max" dataDxfId="15">
+    <tableColumn id="48" xr3:uid="{8A9CD75F-5985-46DF-9D95-7275ACACA68E}" name="l1_max" dataDxfId="14">
       <calculatedColumnFormula>10^-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{12D93BD7-5A8F-4557-B46A-203A8DF391C1}" name="l2_min" dataDxfId="14">
+    <tableColumn id="49" xr3:uid="{12D93BD7-5A8F-4557-B46A-203A8DF391C1}" name="l2_min" dataDxfId="13">
       <calculatedColumnFormula>10^-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" xr3:uid="{4D3A199E-B4A3-4279-B793-AB3978ECE31A}" name="l2_max" dataDxfId="13">
+    <tableColumn id="50" xr3:uid="{4D3A199E-B4A3-4279-B793-AB3978ECE31A}" name="l2_max" dataDxfId="12">
       <calculatedColumnFormula>10^-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="51" xr3:uid="{169D2A90-BBA3-40A4-BE42-EDAE87E2815B}" name="l3_min" dataDxfId="12"/>
-    <tableColumn id="52" xr3:uid="{2FE7FC08-7AC9-44CE-A841-E0ECC39D4A75}" name="l3_max" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{92277B1E-35F8-4642-A793-4D178BD0E235}" name="a2_min" dataDxfId="10">
+    <tableColumn id="51" xr3:uid="{169D2A90-BBA3-40A4-BE42-EDAE87E2815B}" name="l3_min" dataDxfId="11"/>
+    <tableColumn id="52" xr3:uid="{2FE7FC08-7AC9-44CE-A841-E0ECC39D4A75}" name="l3_max" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{92277B1E-35F8-4642-A793-4D178BD0E235}" name="a2_min" dataDxfId="9">
       <calculatedColumnFormula>10^-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{3AC55395-DA11-438E-91AF-1DC0DACF179B}" name="a2_max" dataDxfId="9">
+    <tableColumn id="14" xr3:uid="{3AC55395-DA11-438E-91AF-1DC0DACF179B}" name="a2_max" dataDxfId="2">
       <calculatedColumnFormula>10^3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7193F3EB-8EDC-40FB-933B-14EF280D9D41}" name="i2_min" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{BA3456F6-6CBB-4EA5-BEF5-E28A97E4FC52}" name="i2_max" dataDxfId="7"/>
-    <tableColumn id="53" xr3:uid="{79D6EC1B-5DFA-4F4C-BC94-D49D26645698}" name="error" dataDxfId="6"/>
+    <tableColumn id="53" xr3:uid="{79D6EC1B-5DFA-4F4C-BC94-D49D26645698}" name="error" dataDxfId="8"/>
     <tableColumn id="54" xr3:uid="{559635E0-2BE9-4016-95B4-246431349D7C}" name="lr_prtr"/>
-    <tableColumn id="55" xr3:uid="{583F6650-C708-4DC8-88C0-E2E2EEBD4F23}" name="alph1" dataDxfId="5"/>
-    <tableColumn id="56" xr3:uid="{AFA9A5D2-0A51-40C8-AF2B-600191D73653}" name="iter1" dataDxfId="4"/>
-    <tableColumn id="57" xr3:uid="{748E0574-A02A-401F-BDA3-1F32FAE29A42}" name="learnr" dataDxfId="3"/>
+    <tableColumn id="55" xr3:uid="{583F6650-C708-4DC8-88C0-E2E2EEBD4F23}" name="alph1" dataDxfId="7"/>
+    <tableColumn id="57" xr3:uid="{748E0574-A02A-401F-BDA3-1F32FAE29A42}" name="learnr" dataDxfId="6"/>
     <tableColumn id="58" xr3:uid="{755E59BB-0EE2-4FE2-84B2-054EE5B67348}" name="lamb1"/>
     <tableColumn id="59" xr3:uid="{60F91526-2124-414B-B5CC-61AAEE97C014}" name="lamb2"/>
     <tableColumn id="60" xr3:uid="{9153B781-FB9A-49DD-8474-A1624972B667}" name="lamb3"/>
     <tableColumn id="61" xr3:uid="{2F8757ED-C307-43C5-9AA4-25C88C272BA3}" name="alph2"/>
-    <tableColumn id="62" xr3:uid="{D66ED8B8-6E22-47D4-BF31-AF5A1BCA8FD9}" name="iter2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81A51915-D99D-4859-85C1-557C273A617F}" name="Table3" displayName="Table3" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{FB39D890-0BF6-441A-B212-6EC912A0CDAA}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6664A9F6-2D81-459A-8170-A97971809FB5}" name="Parameter" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81A51915-D99D-4859-85C1-557C273A617F}" name="Table3" displayName="Table3" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{FB39D890-0BF6-441A-B212-6EC912A0CDAA}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6664A9F6-2D81-459A-8170-A97971809FB5}" name="Parameter" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{8015C4E0-DACB-462B-A494-00631B9B1C67}" name="Dataset"/>
     <tableColumn id="5" xr3:uid="{5942BF33-B200-491E-BDB5-A6F51047AB49}" name="opt_func"/>
+    <tableColumn id="3" xr3:uid="{4F7B7929-9040-4B59-AADF-628A7FA3C0DE}" name="seed"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A1B3A39-5661-4033-8C69-C1886D56FE64}" name="Table4" displayName="Table4" ref="F1:O5" totalsRowShown="0">
-  <autoFilter ref="F1:O5" xr:uid="{D7B7C410-31D4-42E4-991A-9F1D647A833C}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{ABF8FF28-AC5E-4B6F-B762-0F895D130616}" name="Feature" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{FBABDFE0-B7A2-4611-AD61-65A4B29DBE24}" name="lr_prtr" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A1B3A39-5661-4033-8C69-C1886D56FE64}" name="Table4" displayName="Table4" ref="F1:M5" totalsRowShown="0">
+  <autoFilter ref="F1:M5" xr:uid="{D7B7C410-31D4-42E4-991A-9F1D647A833C}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{ABF8FF28-AC5E-4B6F-B762-0F895D130616}" name="Feature" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FBABDFE0-B7A2-4611-AD61-65A4B29DBE24}" name="lr_prtr" dataDxfId="3">
       <calculatedColumnFormula>10^4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{AF82A8E8-79F0-4C5C-9448-9CA7BF4775DC}" name="alph1"/>
-    <tableColumn id="4" xr3:uid="{AB2A485F-C08A-43FB-AE00-92B7EB40DFF2}" name="iter1"/>
     <tableColumn id="5" xr3:uid="{A9713804-A8A5-4759-A43C-F920C59C6DD6}" name="learnr"/>
     <tableColumn id="6" xr3:uid="{88E5A1F2-E0FA-434C-A62D-C906D6FE19F7}" name="lamb1"/>
     <tableColumn id="7" xr3:uid="{28B3A03E-C271-417D-B5CF-10562DE6923E}" name="lamb2"/>
     <tableColumn id="8" xr3:uid="{895AB164-175A-478A-A854-4578A1B78D18}" name="lamb3"/>
     <tableColumn id="9" xr3:uid="{155E3DA7-F543-4B82-838F-0618C9BD0C9E}" name="alph2"/>
-    <tableColumn id="10" xr3:uid="{0857E1E6-F809-4F8A-B266-3E8E4843C9E5}" name="iter2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1610,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3BE8-5908-4BE5-BD92-5B34615E80E7}">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,59 +1586,59 @@
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>26</v>
+    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="M1" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="53" t="s">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>45</v>
-      </c>
-      <c r="M1" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>51</v>
       </c>
       <c r="G2">
         <f>10^-4</f>
@@ -1690,47 +1649,41 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
         <f>10^-4</f>
         <v>1E-4</v>
       </c>
-      <c r="K2">
+      <c r="J2">
         <f>10^0</f>
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="K2">
         <f>10^-1</f>
         <v>0.1</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <f>10^3</f>
         <v>1000</v>
       </c>
-      <c r="N2">
+      <c r="M2">
         <f>10^2</f>
         <v>100</v>
       </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <f>10^2</f>
         <v>100</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:N3" si="0">10^2</f>
+        <f t="shared" ref="H3:M3" si="0">10^2</f>
         <v>100</v>
       </c>
       <c r="I3">
-        <f>10^1</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
@@ -1748,144 +1701,117 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="N3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="O3">
-        <f>10^1</f>
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="F4" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="14">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="F4" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="11">
         <f>G3/2</f>
         <v>50</v>
       </c>
-      <c r="H4" s="14">
-        <f t="shared" ref="H4:O4" si="1">H3/2</f>
+      <c r="H4" s="11">
+        <f t="shared" ref="H4:M4" si="1">H3/2</f>
         <v>50</v>
       </c>
-      <c r="I4" s="14">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="I4" s="11">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K4" s="14">
+      <c r="J4" s="11">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="L4" s="14">
+      <c r="K4" s="11">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="M4" s="14">
+      <c r="L4" s="11">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="N4" s="14">
+      <c r="M4" s="11">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="O4" s="14">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="F5" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="14">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="F5" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="11">
         <f>G4/2</f>
         <v>25</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="11">
         <f t="shared" ref="H5" si="2">H4/2</f>
         <v>25</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <f t="shared" ref="I5" si="3">I4/2</f>
-        <v>2.5</v>
-      </c>
-      <c r="J5" s="14">
+        <v>25</v>
+      </c>
+      <c r="J5" s="11">
         <f t="shared" ref="J5" si="4">J4/2</f>
         <v>25</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="11">
         <f t="shared" ref="K5" si="5">K4/2</f>
         <v>25</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="11">
         <f t="shared" ref="L5" si="6">L4/2</f>
         <v>25</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="11">
         <f t="shared" ref="M5" si="7">M4/2</f>
         <v>25</v>
       </c>
-      <c r="N5" s="14">
-        <f t="shared" ref="N5" si="8">N4/2</f>
-        <v>25</v>
-      </c>
-      <c r="O5" s="14">
-        <f t="shared" ref="O5" si="9">O4/2</f>
-        <v>2.5</v>
-      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
+      <c r="B10" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="61" t="s">
+        <v>51</v>
+      </c>
       <c r="H10" s="61"/>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="62"/>
+      <c r="J10" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="57" t="s">
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="58"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
     </row>
-    <row r="11" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1893,1322 +1819,1170 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="X11" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="AC11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="V11" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y11" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA11" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD11" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ11" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="7">
         <v>160</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="66">
         <v>1600</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>23</v>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="17">
+        <v>19</v>
+      </c>
+      <c r="I12" s="59">
+        <v>63</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="14">
         <f>H$2/H$3</f>
         <v>1</v>
       </c>
-      <c r="L12" s="17">
+      <c r="M12" s="14">
         <f>H$2*H$3</f>
         <v>10000</v>
       </c>
-      <c r="M12" s="17">
-        <f>I$2/I$3</f>
-        <v>2</v>
-      </c>
-      <c r="N12" s="17">
-        <f>I$2*I$3</f>
-        <v>200</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="V12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="X12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z12" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA12" s="10">
+      <c r="N12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="X12" s="70">
         <v>5.0694444399999997E-2</v>
       </c>
-      <c r="AB12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC12" s="21">
+      <c r="Y12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z12" s="69">
         <v>1.0596679786398899</v>
       </c>
-      <c r="AD12" s="21">
-        <v>5</v>
-      </c>
-      <c r="AE12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ12" s="9" t="s">
-        <v>23</v>
+      <c r="AA12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE12" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="7">
         <v>160</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="66">
         <v>1600</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <v>1000</v>
       </c>
       <c r="H13">
         <v>250</v>
       </c>
-      <c r="I13" s="24">
-        <f t="shared" ref="I13:I16" si="10">G$2/G$3</f>
+      <c r="I13" s="59">
+        <v>63</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" ref="J13:J16" si="8">G$2/G$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J13" s="17">
-        <f t="shared" ref="J13:J16" si="11">G$2*G$3</f>
+      <c r="K13" s="14">
+        <f t="shared" ref="K13:K16" si="9">G$2*G$3</f>
         <v>0.01</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="25">
-        <f t="shared" ref="O13:O16" si="12">J$2/J$3</f>
+      <c r="L13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="22">
+        <f t="shared" ref="N13:N16" si="10">I$2/I$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="P13" s="26">
-        <f t="shared" ref="P13:P16" si="13">J$2*J$3</f>
+      <c r="O13" s="23">
+        <f t="shared" ref="O13:O16" si="11">I$2*I$3</f>
         <v>0.01</v>
       </c>
-      <c r="Q13" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="27">
-        <f t="shared" ref="S13:S16" si="14">L$2/L$3</f>
+      <c r="P13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="24">
+        <f t="shared" ref="R13:R16" si="12">K$2/K$3</f>
         <v>1E-3</v>
       </c>
-      <c r="T13" s="27">
-        <f t="shared" ref="T13:T16" si="15">L$2*L$3</f>
+      <c r="S13" s="24">
+        <f t="shared" ref="S13:S16" si="13">K$2*K$3</f>
         <v>10</v>
       </c>
-      <c r="U13" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="V13" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="W13" s="24">
-        <f t="shared" ref="W13:W16" si="16">N$2/N$3</f>
+      <c r="T13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="21">
+        <f t="shared" ref="V13:V16" si="14">M$2/M$3</f>
         <v>1</v>
       </c>
-      <c r="X13" s="17">
-        <f t="shared" ref="X13:X16" si="17">N$2*N$3</f>
+      <c r="W13" s="25">
+        <f t="shared" ref="W13:W16" si="15">M$2*M$3</f>
         <v>10000</v>
       </c>
-      <c r="Y13" s="17">
-        <f t="shared" ref="Y13:Y16" si="18">O$2/O$3</f>
-        <v>2</v>
-      </c>
-      <c r="Z13" s="28">
-        <f t="shared" ref="Z13:Z16" si="19">O$2*O$3</f>
-        <v>200</v>
-      </c>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="9" t="b">
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="9" t="b">
+      <c r="D14" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>160</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="66">
         <v>1600</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <v>1000</v>
       </c>
       <c r="H14">
         <v>250</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="59">
+        <v>63</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="9"/>
+        <v>0.01</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" ref="L14:L16" si="16">H$2/H$3</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" ref="M14:M16" si="17">H$2*H$3</f>
+        <v>10000</v>
+      </c>
+      <c r="N14" s="22">
         <f t="shared" si="10"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J14" s="17">
+      <c r="O14" s="23">
         <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
-      <c r="K14" s="17">
-        <f t="shared" ref="K14:K16" si="20">H$2/H$3</f>
+      <c r="P14" s="24">
+        <f t="shared" ref="P14:P16" si="18">J$2/J$3</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q14" s="24">
+        <f t="shared" ref="Q14:Q16" si="19">J$2*J$3</f>
+        <v>100</v>
+      </c>
+      <c r="R14" s="24">
+        <f t="shared" si="12"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S14" s="24">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="T14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" s="21">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="L14" s="17">
-        <f t="shared" ref="L14:L16" si="21">H$2*H$3</f>
+      <c r="W14" s="25">
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
-      <c r="M14" s="17">
-        <f t="shared" ref="M14:M16" si="22">I$2/I$3</f>
-        <v>2</v>
-      </c>
-      <c r="N14" s="17">
-        <f t="shared" ref="N14:N16" si="23">I$2*I$3</f>
-        <v>200</v>
-      </c>
-      <c r="O14" s="25">
-        <f t="shared" si="12"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>160</v>
+      </c>
+      <c r="F15" s="66">
+        <v>1600</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H15">
+        <v>250</v>
+      </c>
+      <c r="I15" s="59">
+        <v>63</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="8"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="P14" s="26">
-        <f t="shared" si="13"/>
+      <c r="K15" s="14">
+        <f t="shared" si="9"/>
         <v>0.01</v>
       </c>
-      <c r="Q14" s="27">
-        <f t="shared" ref="Q14:Q16" si="24">K$2/K$3</f>
-        <v>0.01</v>
-      </c>
-      <c r="R14" s="27">
-        <f t="shared" ref="R14:R16" si="25">K$2*K$3</f>
-        <v>100</v>
-      </c>
-      <c r="S14" s="27">
-        <f t="shared" si="14"/>
-        <v>1E-3</v>
-      </c>
-      <c r="T14" s="27">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="U14" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="V14" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="W14" s="24">
+      <c r="L15" s="14">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="X14" s="17">
+      <c r="M15" s="14">
         <f t="shared" si="17"/>
         <v>10000</v>
       </c>
-      <c r="Y14" s="17">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="Z14" s="28">
-        <f t="shared" si="19"/>
-        <v>200</v>
-      </c>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>160</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1600</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1000</v>
-      </c>
-      <c r="H15">
-        <v>250</v>
-      </c>
-      <c r="I15" s="24">
+      <c r="N15" s="22">
         <f t="shared" si="10"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J15" s="17">
+      <c r="O15" s="23">
         <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
-      <c r="K15" s="17">
-        <f t="shared" si="20"/>
+      <c r="P15" s="24">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q15" s="24">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="R15" s="24">
+        <f t="shared" si="12"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S15" s="24">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="T15" s="24">
+        <f t="shared" ref="T15:T16" si="20">L$2/L$3</f>
+        <v>10</v>
+      </c>
+      <c r="U15" s="24">
+        <f t="shared" ref="U15:U16" si="21">L$2*L$3</f>
+        <v>100000</v>
+      </c>
+      <c r="V15" s="21">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="L15" s="17">
-        <f t="shared" si="21"/>
+      <c r="W15" s="25">
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
-      <c r="M15" s="17">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="N15" s="17">
-        <f t="shared" si="23"/>
-        <v>200</v>
-      </c>
-      <c r="O15" s="25">
-        <f t="shared" si="12"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="35">
+        <v>13</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="37">
+        <v>160</v>
+      </c>
+      <c r="F16" s="67">
+        <v>1600</v>
+      </c>
+      <c r="G16" s="37">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="37">
+        <v>250</v>
+      </c>
+      <c r="I16" s="60">
+        <v>63</v>
+      </c>
+      <c r="J16" s="36">
+        <f t="shared" si="8"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="P15" s="26">
-        <f t="shared" si="13"/>
+      <c r="K16" s="36">
+        <f t="shared" si="9"/>
         <v>0.01</v>
       </c>
-      <c r="Q15" s="27">
-        <f t="shared" si="24"/>
-        <v>0.01</v>
-      </c>
-      <c r="R15" s="27">
-        <f t="shared" si="25"/>
-        <v>100</v>
-      </c>
-      <c r="S15" s="27">
-        <f t="shared" si="14"/>
-        <v>1E-3</v>
-      </c>
-      <c r="T15" s="27">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="U15" s="27">
-        <f t="shared" ref="U15:U16" si="26">M$2/M$3</f>
-        <v>10</v>
-      </c>
-      <c r="V15" s="27">
-        <f t="shared" ref="V15:V16" si="27">M$2*M$3</f>
-        <v>100000</v>
-      </c>
-      <c r="W15" s="24">
+      <c r="L16" s="36">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="X15" s="17">
+      <c r="M16" s="36">
         <f t="shared" si="17"/>
         <v>10000</v>
       </c>
-      <c r="Y15" s="17">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="Z15" s="28">
-        <f t="shared" si="19"/>
-        <v>200</v>
-      </c>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="39">
-        <v>13</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="41">
-        <v>160</v>
-      </c>
-      <c r="F16" s="41">
-        <v>1600</v>
-      </c>
-      <c r="G16" s="41">
-        <v>1000</v>
-      </c>
-      <c r="H16" s="41">
-        <v>250</v>
-      </c>
-      <c r="I16" s="42">
+      <c r="N16" s="39">
         <f t="shared" si="10"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J16" s="40">
+      <c r="O16" s="40">
         <f t="shared" si="11"/>
         <v>0.01</v>
       </c>
-      <c r="K16" s="40">
+      <c r="P16" s="41">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q16" s="41">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="R16" s="41">
+        <f t="shared" si="12"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S16" s="41">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="T16" s="41">
         <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="U16" s="41">
+        <f t="shared" si="21"/>
+        <v>100000</v>
+      </c>
+      <c r="V16" s="38">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="L16" s="40">
-        <f t="shared" si="21"/>
+      <c r="W16" s="42">
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
-      <c r="M16" s="40">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="N16" s="40">
-        <f t="shared" si="23"/>
-        <v>200</v>
-      </c>
-      <c r="O16" s="43">
-        <f t="shared" si="12"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="P16" s="44">
-        <f t="shared" si="13"/>
-        <v>0.01</v>
-      </c>
-      <c r="Q16" s="45">
-        <f t="shared" si="24"/>
-        <v>0.01</v>
-      </c>
-      <c r="R16" s="45">
-        <f t="shared" si="25"/>
-        <v>100</v>
-      </c>
-      <c r="S16" s="45">
-        <f t="shared" si="14"/>
-        <v>1E-3</v>
-      </c>
-      <c r="T16" s="45">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="U16" s="45">
-        <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="V16" s="45">
-        <f t="shared" si="27"/>
-        <v>100000</v>
-      </c>
-      <c r="W16" s="42">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="X16" s="40">
-        <f t="shared" si="17"/>
-        <v>10000</v>
-      </c>
-      <c r="Y16" s="40">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="Z16" s="46">
-        <f t="shared" si="19"/>
-        <v>200</v>
-      </c>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="B17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7">
         <v>40</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="66">
         <v>400</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>23</v>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="31">
-        <f>AC12/H$4</f>
+        <v>19</v>
+      </c>
+      <c r="I17" s="59">
+        <v>250</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="68">
+        <f>Z12/H$4</f>
         <v>2.1193359572797797E-2</v>
       </c>
-      <c r="L17" s="31">
-        <f>AC12*H$4</f>
+      <c r="M17" s="68">
+        <f>Z12*H$4</f>
         <v>52.983398931994493</v>
       </c>
-      <c r="M17" s="31">
-        <f>MAX(2, ROUND(AD12/I$4, 0))</f>
-        <v>2</v>
-      </c>
-      <c r="N17" s="31">
-        <f>ROUND(AD12*I$4, 0)</f>
-        <v>25</v>
-      </c>
-      <c r="O17" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q17" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="U17" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="V17" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="X17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z17" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA17" s="10">
+      <c r="N17" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="70">
         <v>5.0694444399999997E-2</v>
       </c>
-      <c r="AB17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC17" s="38">
+      <c r="Y17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z17" s="72">
         <v>0.91990114979458104</v>
       </c>
-      <c r="AD17" s="38">
-        <v>19</v>
-      </c>
-      <c r="AE17" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>23</v>
+      <c r="AA17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>15</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="B18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="7">
         <v>40</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="66">
         <v>400</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <v>4000</v>
       </c>
       <c r="H18">
         <v>1000</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="25"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="V18" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W18" s="24"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="31"/>
+      <c r="I18" s="59">
+        <v>250</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="21"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="27"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="9" t="b">
+      <c r="B19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D19" s="9" t="b">
+      <c r="D19" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>40</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="66">
         <v>400</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>4000</v>
       </c>
       <c r="H19">
         <v>1000</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="V19" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W19" s="24"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="31"/>
+      <c r="I19" s="59">
+        <v>250</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" s="21"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="27"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="9" t="b">
+      <c r="B20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D20" s="9" t="b">
+      <c r="D20" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>40</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="66">
         <v>400</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <v>4000</v>
       </c>
       <c r="H20">
         <v>1000</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="31"/>
+      <c r="I20" s="59">
+        <v>250</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="27"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="39">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" s="35">
         <v>18</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="37">
+        <v>40</v>
+      </c>
+      <c r="F21" s="67">
+        <v>400</v>
+      </c>
+      <c r="G21" s="37">
+        <v>4000</v>
+      </c>
+      <c r="H21" s="37">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="60">
+        <v>250</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="7">
+        <v>10</v>
+      </c>
+      <c r="F22" s="66">
+        <v>100</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="59">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="68">
+        <f>Z17/H$5</f>
+        <v>3.6796045991783238E-2</v>
+      </c>
+      <c r="M22" s="68">
+        <f>Z17*H$5</f>
+        <v>22.997528744864525</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="W22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="X22" s="71">
+        <v>6.6962527199969398E-8</v>
+      </c>
+      <c r="Y22" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z22" s="72">
+        <v>0.99622897002084099</v>
+      </c>
+      <c r="AA22" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB22" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>20</v>
       </c>
-      <c r="C21" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="41">
-        <v>40</v>
-      </c>
-      <c r="F21" s="41">
-        <v>400</v>
-      </c>
-      <c r="G21" s="41">
-        <v>4000</v>
-      </c>
-      <c r="H21" s="41">
-        <v>1000</v>
-      </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>19</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="B23" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="7">
         <v>10</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="66">
         <v>100</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="31">
-        <f>AC17/H$5</f>
-        <v>3.6796045991783238E-2</v>
-      </c>
-      <c r="L22" s="31">
-        <f>AC17*H$5</f>
-        <v>22.997528744864525</v>
-      </c>
-      <c r="M22" s="31">
-        <f>MAX(2, ROUND(AD17/I$5, 0))</f>
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <f>ROUND(AD17*I$5, 0)</f>
-        <v>48</v>
-      </c>
-      <c r="O22" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="U22" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="V22" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W22" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="X22" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y22" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z22" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA22" s="56">
-        <v>6.6962527199969398E-8</v>
-      </c>
-      <c r="AB22" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC22" s="38">
-        <v>0.99622897002084099</v>
-      </c>
-      <c r="AD22" s="38">
-        <v>11</v>
-      </c>
-      <c r="AE22" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF22" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>20</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="9">
-        <v>10</v>
-      </c>
-      <c r="F23" s="9">
-        <v>100</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="G23" s="7">
         <v>16000</v>
       </c>
       <c r="H23">
         <v>4000</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="O23" s="25"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="V23" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W23" s="24"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="31"/>
+      <c r="I23" s="59">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="22"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="21"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="27"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>21</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="9" t="b">
+      <c r="B24" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="9" t="b">
+      <c r="D24" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <v>10</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="66">
         <v>100</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="7">
         <v>16000</v>
       </c>
       <c r="H24">
         <v>4000</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="V24" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W24" s="24"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="31"/>
+      <c r="I24" s="59">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="21"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="27"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="9" t="b">
+      <c r="B25" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="9" t="b">
+      <c r="D25" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>10</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="66">
         <v>100</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="7">
         <v>16000</v>
       </c>
       <c r="H25">
         <v>4000</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="31"/>
+      <c r="I25" s="59">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="27"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
         <v>23</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="9" t="b">
+      <c r="B26" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D26" s="9" t="b">
+      <c r="D26" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>10</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="66">
         <v>100</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="7">
         <v>16000</v>
       </c>
       <c r="H26">
         <v>4000</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
+      <c r="I26" s="59">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="AA10:AJ10"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I10:Z10"/>
+  <mergeCells count="4">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="J10:W10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="X10:AE10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="I3" formula="1"/>
-  </ignoredErrors>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FBF1B3-77E1-47DD-AAC5-E362D64ABA78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DACAD3-C4BA-4D13-A1FE-15D6C5B8781D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="58">
   <si>
     <t>Scenario</t>
   </si>
@@ -181,6 +181,24 @@
   </si>
   <si>
     <t>Model size</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Different model seed</t>
+  </si>
+  <si>
+    <t>less samples?</t>
+  </si>
+  <si>
+    <t>re_seeds</t>
+  </si>
+  <si>
+    <t>0 - 5</t>
+  </si>
+  <si>
+    <t>add rho as parameter</t>
   </si>
 </sst>
 </file>
@@ -211,7 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -611,7 +629,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -619,7 +636,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -685,13 +701,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,21 +1261,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81A51915-D99D-4859-85C1-557C273A617F}" name="Table3" displayName="Table3" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{FB39D890-0BF6-441A-B212-6EC912A0CDAA}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81A51915-D99D-4859-85C1-557C273A617F}" name="Table3" displayName="Table3" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{FB39D890-0BF6-441A-B212-6EC912A0CDAA}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6664A9F6-2D81-459A-8170-A97971809FB5}" name="Parameter" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{8015C4E0-DACB-462B-A494-00631B9B1C67}" name="Dataset"/>
     <tableColumn id="5" xr3:uid="{5942BF33-B200-491E-BDB5-A6F51047AB49}" name="opt_func"/>
     <tableColumn id="3" xr3:uid="{4F7B7929-9040-4B59-AADF-628A7FA3C0DE}" name="seed"/>
+    <tableColumn id="4" xr3:uid="{C714A4F3-A15B-41C1-A7D2-F494EC03582F}" name="re_seeds"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A1B3A39-5661-4033-8C69-C1886D56FE64}" name="Table4" displayName="Table4" ref="F1:M5" totalsRowShown="0">
-  <autoFilter ref="F1:M5" xr:uid="{D7B7C410-31D4-42E4-991A-9F1D647A833C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A1B3A39-5661-4033-8C69-C1886D56FE64}" name="Table4" displayName="Table4" ref="H1:O5" totalsRowShown="0">
+  <autoFilter ref="H1:O5" xr:uid="{D7B7C410-31D4-42E4-991A-9F1D647A833C}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{ABF8FF28-AC5E-4B6F-B762-0F895D130616}" name="Feature" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{FBABDFE0-B7A2-4611-AD61-65A4B29DBE24}" name="lr_prtr" dataDxfId="3">
@@ -1569,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3BE8-5908-4BE5-BD92-5B34615E80E7}">
-  <dimension ref="A1:AE26"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1580,14 +1601,15 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1599,33 +1621,36 @@
       <c r="D1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="I1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="J1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="K1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="L1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="M1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="N1" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="O1" s="46" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
@@ -1637,56 +1662,51 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="45" t="s">
         <v>45</v>
-      </c>
-      <c r="G2">
-        <f>10^-4</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H2">
-        <f>10^2</f>
-        <v>100</v>
       </c>
       <c r="I2">
         <f>10^-4</f>
         <v>1E-4</v>
       </c>
       <c r="J2">
+        <f>10^2</f>
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <f>10^-4</f>
+        <v>1E-4</v>
+      </c>
+      <c r="L2">
         <f>10^0</f>
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <f>10^-1</f>
         <v>0.1</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <f>10^3</f>
         <v>1000</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <f>10^2</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <f>10^2</f>
         <v>100</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:M3" si="0">10^2</f>
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
       <c r="J3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:O3" si="0">10^2</f>
         <v>100</v>
       </c>
       <c r="K3">
@@ -1701,70 +1721,78 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="F4" s="50" t="s">
+      <c r="H4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="11">
-        <f>G3/2</f>
+      <c r="I4" s="10">
+        <f>I3/2</f>
         <v>50</v>
       </c>
-      <c r="H4" s="11">
-        <f t="shared" ref="H4:M4" si="1">H3/2</f>
+      <c r="J4" s="10">
+        <f t="shared" ref="J4:O4" si="1">J3/2</f>
         <v>50</v>
       </c>
-      <c r="I4" s="11">
+      <c r="K4" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="J4" s="11">
+      <c r="L4" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K4" s="11">
+      <c r="M4" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="L4" s="11">
+      <c r="N4" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="M4" s="11">
+      <c r="O4" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="F5" s="50" t="s">
+      <c r="H5" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="11">
-        <f>G4/2</f>
+      <c r="I5" s="10">
+        <f>I4/2</f>
         <v>25</v>
       </c>
-      <c r="H5" s="11">
-        <f t="shared" ref="H5" si="2">H4/2</f>
+      <c r="J5" s="10">
+        <f t="shared" ref="J5" si="2">J4/2</f>
         <v>25</v>
       </c>
-      <c r="I5" s="11">
-        <f t="shared" ref="I5" si="3">I4/2</f>
+      <c r="K5" s="10">
+        <f t="shared" ref="K5" si="3">K4/2</f>
         <v>25</v>
       </c>
-      <c r="J5" s="11">
-        <f t="shared" ref="J5" si="4">J4/2</f>
+      <c r="L5" s="10">
+        <f t="shared" ref="L5" si="4">L4/2</f>
         <v>25</v>
       </c>
-      <c r="K5" s="11">
-        <f t="shared" ref="K5" si="5">K4/2</f>
+      <c r="M5" s="10">
+        <f t="shared" ref="M5" si="5">M4/2</f>
         <v>25</v>
       </c>
-      <c r="L5" s="11">
-        <f t="shared" ref="L5" si="6">L4/2</f>
+      <c r="N5" s="10">
+        <f t="shared" ref="N5" si="6">N4/2</f>
         <v>25</v>
       </c>
-      <c r="M5" s="11">
-        <f t="shared" ref="M5" si="7">M4/2</f>
+      <c r="O5" s="10">
+        <f t="shared" ref="O5" si="7">O4/2</f>
         <v>25</v>
       </c>
     </row>
@@ -1772,44 +1800,44 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="61" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="55" t="s">
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="73" t="s">
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
     </row>
     <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -1827,16 +1855,16 @@
       <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="62" t="s">
         <v>50</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -1851,43 +1879,43 @@
       <c r="M11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="Q11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="R11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="S11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="20" t="s">
+      <c r="T11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="U11" s="20" t="s">
+      <c r="U11" s="18" t="s">
         <v>31</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W11" s="58" t="s">
+      <c r="W11" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="X11" s="57" t="s">
+      <c r="X11" s="55" t="s">
         <v>36</v>
       </c>
       <c r="Y11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="17" t="s">
+      <c r="Z11" s="16" t="s">
         <v>38</v>
       </c>
       <c r="AA11" s="5" t="s">
@@ -1916,13 +1944,13 @@
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="7">
         <v>160</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="64">
         <v>1600</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -1931,61 +1959,61 @@
       <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="57">
         <v>63</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="14">
-        <f>H$2/H$3</f>
+      <c r="J12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="13">
+        <f>J$2/J$3</f>
         <v>1</v>
       </c>
-      <c r="M12" s="14">
-        <f>H$2*H$3</f>
+      <c r="M12" s="13">
+        <f>J$2*J$3</f>
         <v>10000</v>
       </c>
-      <c r="N12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="U12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="W12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="X12" s="70">
-        <v>5.0694444399999997E-2</v>
+      <c r="N12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="X12" s="67">
+        <v>9.5833333333333298E-2</v>
       </c>
       <c r="Y12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z12" s="69">
-        <v>1.0596679786398899</v>
+      <c r="Z12" s="68">
+        <v>6.9083605566357997</v>
       </c>
       <c r="AA12" s="7" t="s">
         <v>19</v>
@@ -2019,7 +2047,7 @@
       <c r="E13" s="7">
         <v>160</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="64">
         <v>1600</v>
       </c>
       <c r="G13" s="7">
@@ -2028,67 +2056,83 @@
       <c r="H13">
         <v>250</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="57">
         <v>63</v>
       </c>
-      <c r="J13" s="14">
-        <f t="shared" ref="J13:J16" si="8">G$2/G$3</f>
+      <c r="J13" s="13">
+        <f>I$2/I$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K13" s="14">
-        <f t="shared" ref="K13:K16" si="9">G$2*G$3</f>
+      <c r="K13" s="13">
+        <f>I$2*I$3</f>
         <v>0.01</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="22">
-        <f t="shared" ref="N13:N16" si="10">I$2/I$3</f>
+      <c r="L13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="20">
+        <f>K$2/K$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="O13" s="23">
-        <f t="shared" ref="O13:O16" si="11">I$2*I$3</f>
+      <c r="O13" s="21">
+        <f>K$2*K$3</f>
         <v>0.01</v>
       </c>
-      <c r="P13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="24">
-        <f t="shared" ref="R13:R16" si="12">K$2/K$3</f>
+      <c r="P13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="22">
+        <f>M$2/M$3</f>
         <v>1E-3</v>
       </c>
-      <c r="S13" s="24">
-        <f t="shared" ref="S13:S16" si="13">K$2*K$3</f>
+      <c r="S13" s="22">
+        <f>M$2*M$3</f>
         <v>10</v>
       </c>
-      <c r="T13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="U13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="V13" s="21">
-        <f t="shared" ref="V13:V16" si="14">M$2/M$3</f>
+      <c r="T13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="19">
+        <f>O$2/O$3</f>
         <v>1</v>
       </c>
-      <c r="W13" s="25">
-        <f t="shared" ref="W13:W16" si="15">M$2*M$3</f>
+      <c r="W13" s="23">
+        <f>O$2*O$3</f>
         <v>10000</v>
       </c>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
+      <c r="X13" s="7">
+        <v>0.10918688740324201</v>
+      </c>
+      <c r="Y13" s="73">
+        <v>6.3720283621781096E-3</v>
+      </c>
+      <c r="Z13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA13" s="72">
+        <v>1.1633164353256201E-5</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC13">
+        <v>5.0882338549171199E-3</v>
+      </c>
+      <c r="AD13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE13">
+        <v>4.0851568553031097</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -2106,7 +2150,7 @@
       <c r="E14" s="7">
         <v>160</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="64">
         <v>1600</v>
       </c>
       <c r="G14" s="7">
@@ -2115,74 +2159,90 @@
       <c r="H14">
         <v>250</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="57">
         <v>63</v>
       </c>
-      <c r="J14" s="14">
-        <f t="shared" si="8"/>
+      <c r="J14" s="13">
+        <f>I$2/I$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K14" s="14">
-        <f t="shared" si="9"/>
+      <c r="K14" s="13">
+        <f>I$2*I$3</f>
         <v>0.01</v>
       </c>
-      <c r="L14" s="14">
-        <f t="shared" ref="L14:L16" si="16">H$2/H$3</f>
+      <c r="L14" s="13">
+        <f>J$2/J$3</f>
         <v>1</v>
       </c>
-      <c r="M14" s="14">
-        <f t="shared" ref="M14:M16" si="17">H$2*H$3</f>
+      <c r="M14" s="13">
+        <f>J$2*J$3</f>
         <v>10000</v>
       </c>
-      <c r="N14" s="22">
-        <f t="shared" si="10"/>
+      <c r="N14" s="20">
+        <f>K$2/K$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="O14" s="23">
-        <f t="shared" si="11"/>
+      <c r="O14" s="21">
+        <f>K$2*K$3</f>
         <v>0.01</v>
       </c>
-      <c r="P14" s="24">
-        <f t="shared" ref="P14:P16" si="18">J$2/J$3</f>
+      <c r="P14" s="22">
+        <f>L$2/L$3</f>
         <v>0.01</v>
       </c>
-      <c r="Q14" s="24">
-        <f t="shared" ref="Q14:Q16" si="19">J$2*J$3</f>
+      <c r="Q14" s="22">
+        <f>L$2*L$3</f>
         <v>100</v>
       </c>
-      <c r="R14" s="24">
-        <f t="shared" si="12"/>
+      <c r="R14" s="22">
+        <f>M$2/M$3</f>
         <v>1E-3</v>
       </c>
-      <c r="S14" s="24">
-        <f t="shared" si="13"/>
+      <c r="S14" s="22">
+        <f>M$2*M$3</f>
         <v>10</v>
       </c>
-      <c r="T14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="U14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="V14" s="21">
-        <f t="shared" si="14"/>
+      <c r="T14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" s="19">
+        <f>O$2/O$3</f>
         <v>1</v>
       </c>
-      <c r="W14" s="25">
-        <f t="shared" si="15"/>
+      <c r="W14" s="23">
+        <f>O$2*O$3</f>
         <v>10000</v>
       </c>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
+      <c r="X14" s="7">
+        <v>0.10433078398359601</v>
+      </c>
+      <c r="Y14" s="73">
+        <v>7.1515104499875201E-3</v>
+      </c>
+      <c r="Z14">
+        <v>229.71776442616499</v>
+      </c>
+      <c r="AA14">
+        <v>1.3014822887163599E-3</v>
+      </c>
+      <c r="AB14">
+        <v>0.24645236103392101</v>
+      </c>
+      <c r="AC14">
+        <v>0.103887216065776</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE14">
+        <v>3.69971498280144</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2197,7 +2257,7 @@
       <c r="E15" s="7">
         <v>160</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="64">
         <v>1600</v>
       </c>
       <c r="G15" s="7">
@@ -2206,172 +2266,172 @@
       <c r="H15">
         <v>250</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="57">
         <v>63</v>
       </c>
-      <c r="J15" s="14">
-        <f t="shared" si="8"/>
+      <c r="J15" s="13">
+        <f>I$2/I$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K15" s="14">
-        <f t="shared" si="9"/>
+      <c r="K15" s="13">
+        <f>I$2*I$3</f>
         <v>0.01</v>
       </c>
-      <c r="L15" s="14">
-        <f t="shared" si="16"/>
+      <c r="L15" s="13">
+        <f>J$2/J$3</f>
         <v>1</v>
       </c>
-      <c r="M15" s="14">
-        <f t="shared" si="17"/>
+      <c r="M15" s="13">
+        <f>J$2*J$3</f>
         <v>10000</v>
       </c>
-      <c r="N15" s="22">
-        <f t="shared" si="10"/>
+      <c r="N15" s="20">
+        <f>K$2/K$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="O15" s="23">
-        <f t="shared" si="11"/>
+      <c r="O15" s="21">
+        <f>K$2*K$3</f>
         <v>0.01</v>
       </c>
-      <c r="P15" s="24">
-        <f t="shared" si="18"/>
+      <c r="P15" s="22">
+        <f>L$2/L$3</f>
         <v>0.01</v>
       </c>
-      <c r="Q15" s="24">
-        <f t="shared" si="19"/>
+      <c r="Q15" s="22">
+        <f>L$2*L$3</f>
         <v>100</v>
       </c>
-      <c r="R15" s="24">
-        <f t="shared" si="12"/>
+      <c r="R15" s="22">
+        <f>M$2/M$3</f>
         <v>1E-3</v>
       </c>
-      <c r="S15" s="24">
-        <f t="shared" si="13"/>
+      <c r="S15" s="22">
+        <f>M$2*M$3</f>
         <v>10</v>
       </c>
-      <c r="T15" s="24">
-        <f t="shared" ref="T15:T16" si="20">L$2/L$3</f>
+      <c r="T15" s="22">
+        <f>N$2/N$3</f>
         <v>10</v>
       </c>
-      <c r="U15" s="24">
-        <f t="shared" ref="U15:U16" si="21">L$2*L$3</f>
+      <c r="U15" s="22">
+        <f>N$2*N$3</f>
         <v>100000</v>
       </c>
-      <c r="V15" s="21">
-        <f t="shared" si="14"/>
+      <c r="V15" s="19">
+        <f>O$2/O$3</f>
         <v>1</v>
       </c>
-      <c r="W15" s="25">
-        <f t="shared" si="15"/>
+      <c r="W15" s="23">
+        <f>O$2*O$3</f>
         <v>10000</v>
       </c>
       <c r="X15" s="7"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="14"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="13"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
+      <c r="A16" s="33">
         <v>13</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="37" t="b">
+      <c r="C16" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="37" t="b">
+      <c r="D16" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="35">
         <v>160</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="65">
         <v>1600</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="35">
         <v>1000</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="35">
         <v>250</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="58">
         <v>63</v>
       </c>
-      <c r="J16" s="36">
-        <f t="shared" si="8"/>
+      <c r="J16" s="34">
+        <f>I$2/I$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K16" s="36">
-        <f t="shared" si="9"/>
+      <c r="K16" s="34">
+        <f>I$2*I$3</f>
         <v>0.01</v>
       </c>
-      <c r="L16" s="36">
-        <f t="shared" si="16"/>
+      <c r="L16" s="34">
+        <f>J$2/J$3</f>
         <v>1</v>
       </c>
-      <c r="M16" s="36">
-        <f t="shared" si="17"/>
+      <c r="M16" s="34">
+        <f>J$2*J$3</f>
         <v>10000</v>
       </c>
-      <c r="N16" s="39">
-        <f t="shared" si="10"/>
+      <c r="N16" s="37">
+        <f>K$2/K$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="O16" s="40">
-        <f t="shared" si="11"/>
+      <c r="O16" s="38">
+        <f>K$2*K$3</f>
         <v>0.01</v>
       </c>
-      <c r="P16" s="41">
-        <f t="shared" si="18"/>
+      <c r="P16" s="39">
+        <f>L$2/L$3</f>
         <v>0.01</v>
       </c>
-      <c r="Q16" s="41">
-        <f t="shared" si="19"/>
+      <c r="Q16" s="39">
+        <f>L$2*L$3</f>
         <v>100</v>
       </c>
-      <c r="R16" s="41">
-        <f t="shared" si="12"/>
+      <c r="R16" s="39">
+        <f>M$2/M$3</f>
         <v>1E-3</v>
       </c>
-      <c r="S16" s="41">
-        <f t="shared" si="13"/>
+      <c r="S16" s="39">
+        <f>M$2*M$3</f>
         <v>10</v>
       </c>
-      <c r="T16" s="41">
-        <f t="shared" si="20"/>
+      <c r="T16" s="39">
+        <f>N$2/N$3</f>
         <v>10</v>
       </c>
-      <c r="U16" s="41">
-        <f t="shared" si="21"/>
+      <c r="U16" s="39">
+        <f>N$2*N$3</f>
         <v>100000</v>
       </c>
-      <c r="V16" s="38">
-        <f t="shared" si="14"/>
+      <c r="V16" s="36">
+        <f>O$2/O$3</f>
         <v>1</v>
       </c>
-      <c r="W16" s="42">
-        <f t="shared" si="15"/>
+      <c r="W16" s="40">
+        <f>O$2*O$3</f>
         <v>10000</v>
       </c>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2383,7 +2443,7 @@
       <c r="E17" s="7">
         <v>40</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="64">
         <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -2392,66 +2452,62 @@
       <c r="H17" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="59">
+      <c r="I17" s="57">
         <v>250</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="68">
-        <f>Z12/H$4</f>
-        <v>2.1193359572797797E-2</v>
-      </c>
-      <c r="M17" s="68">
-        <f>Z12*H$4</f>
-        <v>52.983398931994493</v>
-      </c>
-      <c r="N17" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="S17" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="T17" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="U17" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="V17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="W17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="X17" s="70">
-        <v>5.0694444399999997E-2</v>
-      </c>
-      <c r="Y17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z17" s="72">
-        <v>0.91990114979458104</v>
-      </c>
-      <c r="AA17" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB17" s="27" t="s">
+      <c r="J17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="71">
+        <f>Z12/J$4</f>
+        <v>0.13816721113271599</v>
+      </c>
+      <c r="M17" s="71">
+        <f>Z12*J$4</f>
+        <v>345.41802783178997</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="AC17" t="s">
@@ -2468,7 +2524,7 @@
       <c r="A18" s="8">
         <v>15</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -2480,7 +2536,7 @@
       <c r="E18" s="7">
         <v>40</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="64">
         <v>400</v>
       </c>
       <c r="G18" s="7">
@@ -2489,42 +2545,53 @@
       <c r="H18">
         <v>1000</v>
       </c>
-      <c r="I18" s="59">
+      <c r="I18" s="57">
         <v>250</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="21"/>
-      <c r="W18" s="25"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="20"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="19"/>
+      <c r="W18" s="23"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="27"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="7" t="b">
@@ -2536,7 +2603,7 @@
       <c r="E19" s="7">
         <v>40</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="64">
         <v>400</v>
       </c>
       <c r="G19" s="7">
@@ -2545,38 +2612,41 @@
       <c r="H19">
         <v>1000</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="57">
         <v>250</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="U19" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="V19" s="21"/>
-      <c r="W19" s="25"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" s="19"/>
+      <c r="W19" s="23"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="27"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="25"/>
+      <c r="AD19" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>17</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="7" t="b">
@@ -2588,7 +2658,7 @@
       <c r="E20" s="7">
         <v>40</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="64">
         <v>400</v>
       </c>
       <c r="G20" s="7">
@@ -2597,85 +2667,85 @@
       <c r="H20">
         <v>1000</v>
       </c>
-      <c r="I20" s="59">
+      <c r="I20" s="57">
         <v>250</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="25"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="23"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="27"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="25"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="35">
+      <c r="A21" s="33">
         <v>18</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="37" t="b">
+      <c r="C21" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="37" t="b">
+      <c r="D21" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="35">
         <v>40</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="65">
         <v>400</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="35">
         <v>4000</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="35">
         <v>1000</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="58">
         <v>250</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -2687,7 +2757,7 @@
       <c r="E22" s="7">
         <v>10</v>
       </c>
-      <c r="F22" s="66">
+      <c r="F22" s="64">
         <v>100</v>
       </c>
       <c r="G22" s="7" t="s">
@@ -2696,66 +2766,62 @@
       <c r="H22" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="59">
+      <c r="I22" s="57">
         <v>1000</v>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="68">
-        <f>Z17/H$5</f>
-        <v>3.6796045991783238E-2</v>
-      </c>
-      <c r="M22" s="68">
-        <f>Z17*H$5</f>
-        <v>22.997528744864525</v>
-      </c>
-      <c r="N22" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="R22" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="S22" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="T22" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="U22" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="V22" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="W22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="X22" s="71">
-        <v>6.6962527199969398E-8</v>
-      </c>
-      <c r="Y22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z22" s="72">
-        <v>0.99622897002084099</v>
-      </c>
-      <c r="AA22" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB22" s="27" t="s">
+      <c r="J22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="71">
+        <f>Z17/J$5</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="71">
+        <f>Z17*J$5</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB22" s="25" t="s">
         <v>19</v>
       </c>
       <c r="AC22" t="s">
@@ -2772,7 +2838,7 @@
       <c r="A23" s="8">
         <v>20</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -2784,7 +2850,7 @@
       <c r="E23" s="7">
         <v>10</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="64">
         <v>100</v>
       </c>
       <c r="G23" s="7">
@@ -2793,42 +2859,53 @@
       <c r="H23">
         <v>4000</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="57">
         <v>1000</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="U23" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="V23" s="21"/>
-      <c r="W23" s="25"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="19"/>
+      <c r="W23" s="23"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="27"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>21</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="7" t="b">
@@ -2840,7 +2917,7 @@
       <c r="E24" s="7">
         <v>10</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F24" s="64">
         <v>100</v>
       </c>
       <c r="G24" s="7">
@@ -2849,38 +2926,41 @@
       <c r="H24">
         <v>4000</v>
       </c>
-      <c r="I24" s="59">
+      <c r="I24" s="57">
         <v>1000</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="U24" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="V24" s="21"/>
-      <c r="W24" s="25"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="19"/>
+      <c r="W24" s="23"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="27"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="25"/>
+      <c r="AD24" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>22</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="7" t="b">
@@ -2892,7 +2972,7 @@
       <c r="E25" s="7">
         <v>10</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="64">
         <v>100</v>
       </c>
       <c r="G25" s="7">
@@ -2901,34 +2981,34 @@
       <c r="H25">
         <v>4000</v>
       </c>
-      <c r="I25" s="59">
+      <c r="I25" s="57">
         <v>1000</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="25"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="23"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="27"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="25"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="7" t="b">
@@ -2940,7 +3020,7 @@
       <c r="E26" s="7">
         <v>10</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="64">
         <v>100</v>
       </c>
       <c r="G26" s="7">
@@ -2949,31 +3029,51 @@
       <c r="H26">
         <v>4000</v>
       </c>
-      <c r="I26" s="59">
+      <c r="I26" s="57">
         <v>1000</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="25"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="23"/>
       <c r="X26" s="7"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="14"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="13"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DACAD3-C4BA-4D13-A1FE-15D6C5B8781D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B586D00-F196-4D8B-A885-17430CE2073F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
@@ -205,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +223,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -618,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -710,9 +718,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1592,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3BE8-5908-4BE5-BD92-5B34615E80E7}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,6 +1618,7 @@
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1795,6 +1809,7 @@
         <f t="shared" ref="O5" si="7">O4/2</f>
         <v>25</v>
       </c>
+      <c r="R5" s="74"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -2548,32 +2563,56 @@
       <c r="I18" s="57">
         <v>250</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="42">
+        <f>Y13/I$4</f>
+        <v>1.2744056724356219E-4</v>
+      </c>
+      <c r="K18" s="25">
+        <f>Y13*I$4</f>
+        <v>0.31860141810890547</v>
+      </c>
       <c r="L18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
+      <c r="M18" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="75">
+        <f>AA13/K$4</f>
+        <v>2.3266328706512403E-7</v>
+      </c>
+      <c r="O18" s="76">
+        <f>AA13*K$4</f>
+        <v>5.8165821766281006E-4</v>
+      </c>
       <c r="P18" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
+      <c r="R18" s="77">
+        <f>AC13/M$4</f>
+        <v>1.017646770983424E-4</v>
+      </c>
+      <c r="S18" s="26">
+        <f>AC13*M$4</f>
+        <v>0.25441169274585601</v>
+      </c>
       <c r="T18" s="27" t="s">
         <v>19</v>
       </c>
       <c r="U18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="V18" s="19"/>
-      <c r="W18" s="23"/>
+      <c r="V18" s="19">
+        <f>AE13/O$4</f>
+        <v>8.1703137106062196E-2</v>
+      </c>
+      <c r="W18" s="23">
+        <f>AE13*O$4</f>
+        <v>204.25784276515549</v>
+      </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="25"/>
       <c r="Z18" s="21" t="s">
@@ -2615,24 +2654,60 @@
       <c r="I19" s="57">
         <v>250</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
+      <c r="J19" s="42">
+        <f>Y14/I$4</f>
+        <v>1.4303020899975041E-4</v>
+      </c>
+      <c r="K19" s="25">
+        <f>Y14*I$4</f>
+        <v>0.35757552249937602</v>
+      </c>
+      <c r="L19" s="42">
+        <f>Z14/J$4</f>
+        <v>4.5943552885232997</v>
+      </c>
+      <c r="M19" s="25">
+        <f>Z14*J$4</f>
+        <v>11485.888221308249</v>
+      </c>
+      <c r="N19" s="75">
+        <f>AA14/K$4</f>
+        <v>2.6029645774327199E-5</v>
+      </c>
+      <c r="O19" s="76">
+        <f>AA14*K$4</f>
+        <v>6.5074114435817995E-2</v>
+      </c>
+      <c r="P19" s="78">
+        <f>AB14/L$4</f>
+        <v>4.9290472206784206E-3</v>
+      </c>
+      <c r="Q19" s="76">
+        <f>AB14*L$4</f>
+        <v>12.32261805169605</v>
+      </c>
+      <c r="R19" s="77">
+        <f>AC14/M$4</f>
+        <v>2.0777443213155201E-3</v>
+      </c>
+      <c r="S19" s="26">
+        <f>AC14*M$4</f>
+        <v>5.1943608032888005</v>
+      </c>
       <c r="T19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="U19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="V19" s="19"/>
-      <c r="W19" s="23"/>
+      <c r="V19" s="19">
+        <f>AE14/O$4</f>
+        <v>7.39942996560288E-2</v>
+      </c>
+      <c r="W19" s="23">
+        <f>AE14*O$4</f>
+        <v>184.98574914007199</v>
+      </c>
       <c r="X19" s="7"/>
       <c r="Y19" s="25"/>
       <c r="Z19" s="21"/>

--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B586D00-F196-4D8B-A885-17430CE2073F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBF1772-6F95-48A9-AFC8-9A4833F66F8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
@@ -198,7 +198,7 @@
     <t>0 - 5</t>
   </si>
   <si>
-    <t>add rho as parameter</t>
+    <t>SSC: parameters (rho) + implementation</t>
   </si>
 </sst>
 </file>
@@ -1605,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3BE8-5908-4BE5-BD92-5B34615E80E7}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBF1772-6F95-48A9-AFC8-9A4833F66F8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D698261C-0F98-403E-878F-C324196E16B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
@@ -205,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,13 +231,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -458,17 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -622,11 +604,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -651,31 +644,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,7 +688,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,26 +697,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1605,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3BE8-5908-4BE5-BD92-5B34615E80E7}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1641,30 +1635,30 @@
       <c r="H1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
@@ -1679,7 +1673,7 @@
       <c r="E2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="43" t="s">
         <v>45</v>
       </c>
       <c r="I2">
@@ -1745,7 +1739,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="46" t="s">
         <v>47</v>
       </c>
       <c r="I4" s="10">
@@ -1778,7 +1772,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="46" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="10">
@@ -1809,50 +1803,50 @@
         <f t="shared" ref="O5" si="7">O4/2</f>
         <v>25</v>
       </c>
-      <c r="R5" s="74"/>
+      <c r="R5" s="71"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="59" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="53" t="s">
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="66" t="s">
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
     </row>
     <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -1870,16 +1864,16 @@
       <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="60" t="s">
         <v>50</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -1921,10 +1915,10 @@
       <c r="V11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W11" s="56" t="s">
+      <c r="W11" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="X11" s="55" t="s">
+      <c r="X11" s="53" t="s">
         <v>36</v>
       </c>
       <c r="Y11" s="5" t="s">
@@ -1965,7 +1959,7 @@
       <c r="E12" s="7">
         <v>160</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="62">
         <v>1600</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -1974,7 +1968,7 @@
       <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="55">
         <v>63</v>
       </c>
       <c r="J12" s="13" t="s">
@@ -2021,13 +2015,13 @@
       <c r="W12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="X12" s="67">
+      <c r="X12" s="65">
         <v>9.5833333333333298E-2</v>
       </c>
       <c r="Y12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z12" s="68">
+      <c r="Z12" s="66">
         <v>6.9083605566357997</v>
       </c>
       <c r="AA12" s="7" t="s">
@@ -2062,7 +2056,7 @@
       <c r="E13" s="7">
         <v>160</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="62">
         <v>1600</v>
       </c>
       <c r="G13" s="7">
@@ -2071,7 +2065,7 @@
       <c r="H13">
         <v>250</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="55">
         <v>63</v>
       </c>
       <c r="J13" s="13">
@@ -2127,13 +2121,13 @@
       <c r="X13" s="7">
         <v>0.10918688740324201</v>
       </c>
-      <c r="Y13" s="73">
+      <c r="Y13">
         <v>6.3720283621781096E-3</v>
       </c>
       <c r="Z13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AA13" s="72">
+      <c r="AA13" s="70">
         <v>1.1633164353256201E-5</v>
       </c>
       <c r="AB13" s="7" t="s">
@@ -2165,7 +2159,7 @@
       <c r="E14" s="7">
         <v>160</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="62">
         <v>1600</v>
       </c>
       <c r="G14" s="7">
@@ -2174,7 +2168,7 @@
       <c r="H14">
         <v>250</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="55">
         <v>63</v>
       </c>
       <c r="J14" s="13">
@@ -2234,7 +2228,7 @@
       <c r="X14" s="7">
         <v>0.10433078398359601</v>
       </c>
-      <c r="Y14" s="73">
+      <c r="Y14">
         <v>7.1515104499875201E-3</v>
       </c>
       <c r="Z14">
@@ -2272,7 +2266,7 @@
       <c r="E15" s="7">
         <v>160</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="62">
         <v>1600</v>
       </c>
       <c r="G15" s="7">
@@ -2281,7 +2275,7 @@
       <c r="H15">
         <v>250</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="55">
         <v>63</v>
       </c>
       <c r="J15" s="13">
@@ -2341,106 +2335,134 @@
         <v>10000</v>
       </c>
       <c r="X15" s="7"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
+      <c r="Y15">
+        <v>1.9189713145768999E-3</v>
+      </c>
+      <c r="Z15">
+        <v>1.73474953653237</v>
+      </c>
+      <c r="AA15">
+        <v>6.6534654432520704E-3</v>
+      </c>
+      <c r="AB15">
+        <v>0.48237644524900702</v>
+      </c>
+      <c r="AC15">
+        <v>5.0295186969567703E-3</v>
+      </c>
+      <c r="AD15">
+        <v>2863.4962154845098</v>
+      </c>
+      <c r="AE15">
+        <v>45.718962312490603</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+      <c r="A16" s="31">
         <v>13</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="35" t="b">
+      <c r="C16" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="35" t="b">
+      <c r="D16" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="33">
         <v>160</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="63">
         <v>1600</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="33">
         <v>1000</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="33">
         <v>250</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="56">
         <v>63</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="32">
         <f>I$2/I$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="32">
         <f>I$2*I$3</f>
         <v>0.01</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="32">
         <f>J$2/J$3</f>
         <v>1</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="32">
         <f>J$2*J$3</f>
         <v>10000</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="35">
         <f>K$2/K$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="O16" s="38">
+      <c r="O16" s="36">
         <f>K$2*K$3</f>
         <v>0.01</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="37">
         <f>L$2/L$3</f>
         <v>0.01</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="37">
         <f>L$2*L$3</f>
         <v>100</v>
       </c>
-      <c r="R16" s="39">
+      <c r="R16" s="37">
         <f>M$2/M$3</f>
         <v>1E-3</v>
       </c>
-      <c r="S16" s="39">
+      <c r="S16" s="37">
         <f>M$2*M$3</f>
         <v>10</v>
       </c>
-      <c r="T16" s="39">
+      <c r="T16" s="37">
         <f>N$2/N$3</f>
         <v>10</v>
       </c>
-      <c r="U16" s="39">
+      <c r="U16" s="37">
         <f>N$2*N$3</f>
         <v>100000</v>
       </c>
-      <c r="V16" s="36">
+      <c r="V16" s="34">
         <f>O$2/O$3</f>
         <v>1</v>
       </c>
-      <c r="W16" s="40">
+      <c r="W16" s="38">
         <f>O$2*O$3</f>
         <v>10000</v>
       </c>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33">
+        <v>1.2361374045736001E-3</v>
+      </c>
+      <c r="Z16" s="33">
+        <v>15.509757613602799</v>
+      </c>
+      <c r="AA16" s="33">
+        <v>8.39843076851305E-4</v>
+      </c>
+      <c r="AB16" s="33">
+        <v>1.3933649638391801E-2</v>
+      </c>
+      <c r="AC16" s="33">
+        <v>7.9068326188588802</v>
+      </c>
+      <c r="AD16" s="33">
+        <v>1286.7961014325101</v>
+      </c>
+      <c r="AE16" s="33">
+        <v>285.27402734663002</v>
+      </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
@@ -2458,7 +2480,7 @@
       <c r="E17" s="7">
         <v>40</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="62">
         <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -2467,7 +2489,7 @@
       <c r="H17" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="55">
         <v>250</v>
       </c>
       <c r="J17" s="13" t="s">
@@ -2476,18 +2498,18 @@
       <c r="K17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="71">
+      <c r="L17" s="69">
         <f>Z12/J$4</f>
         <v>0.13816721113271599</v>
       </c>
-      <c r="M17" s="71">
+      <c r="M17" s="69">
         <f>Z12*J$4</f>
         <v>345.41802783178997</v>
       </c>
-      <c r="N17" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" s="32" t="s">
+      <c r="N17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="30" t="s">
         <v>19</v>
       </c>
       <c r="P17" s="26" t="s">
@@ -2514,12 +2536,14 @@
       <c r="W17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="X17" s="67"/>
+      <c r="X17" s="65"/>
       <c r="Y17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="44" t="s">
+      <c r="Z17">
+        <v>4.8030357415390297</v>
+      </c>
+      <c r="AA17" s="42" t="s">
         <v>19</v>
       </c>
       <c r="AB17" s="25" t="s">
@@ -2551,7 +2575,7 @@
       <c r="E18" s="7">
         <v>40</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="62">
         <v>400</v>
       </c>
       <c r="G18" s="7">
@@ -2560,10 +2584,10 @@
       <c r="H18">
         <v>1000</v>
       </c>
-      <c r="I18" s="57">
+      <c r="I18" s="55">
         <v>250</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="40">
         <f>Y13/I$4</f>
         <v>1.2744056724356219E-4</v>
       </c>
@@ -2574,14 +2598,14 @@
       <c r="L18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="75">
+      <c r="M18" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="72">
         <f>AA13/K$4</f>
         <v>2.3266328706512403E-7</v>
       </c>
-      <c r="O18" s="76">
+      <c r="O18" s="73">
         <f>AA13*K$4</f>
         <v>5.8165821766281006E-4</v>
       </c>
@@ -2591,7 +2615,7 @@
       <c r="Q18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="77">
+      <c r="R18" s="74">
         <f>AC13/M$4</f>
         <v>1.017646770983424E-4</v>
       </c>
@@ -2614,16 +2638,26 @@
         <v>204.25784276515549</v>
       </c>
       <c r="X18" s="7"/>
-      <c r="Y18" s="25"/>
+      <c r="Y18">
+        <v>8.97835455410834E-3</v>
+      </c>
       <c r="Z18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AA18" s="44"/>
+      <c r="AA18" s="70">
+        <v>3.5655254365349703E-5</v>
+      </c>
       <c r="AB18" s="25" t="s">
         <v>19</v>
       </c>
+      <c r="AC18">
+        <v>5.7845337472110098E-2</v>
+      </c>
       <c r="AD18" t="s">
         <v>19</v>
+      </c>
+      <c r="AE18">
+        <v>2.9019952016992101</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
@@ -2642,7 +2676,7 @@
       <c r="E19" s="7">
         <v>40</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="62">
         <v>400</v>
       </c>
       <c r="G19" s="7">
@@ -2651,10 +2685,10 @@
       <c r="H19">
         <v>1000</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="55">
         <v>250</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="40">
         <f>Y14/I$4</f>
         <v>1.4303020899975041E-4</v>
       </c>
@@ -2662,7 +2696,7 @@
         <f>Y14*I$4</f>
         <v>0.35757552249937602</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="40">
         <f>Z14/J$4</f>
         <v>4.5943552885232997</v>
       </c>
@@ -2670,23 +2704,23 @@
         <f>Z14*J$4</f>
         <v>11485.888221308249</v>
       </c>
-      <c r="N19" s="75">
+      <c r="N19" s="72">
         <f>AA14/K$4</f>
         <v>2.6029645774327199E-5</v>
       </c>
-      <c r="O19" s="76">
+      <c r="O19" s="73">
         <f>AA14*K$4</f>
         <v>6.5074114435817995E-2</v>
       </c>
-      <c r="P19" s="78">
+      <c r="P19" s="75">
         <f>AB14/L$4</f>
         <v>4.9290472206784206E-3</v>
       </c>
-      <c r="Q19" s="76">
+      <c r="Q19" s="73">
         <f>AB14*L$4</f>
         <v>12.32261805169605</v>
       </c>
-      <c r="R19" s="77">
+      <c r="R19" s="74">
         <f>AC14/M$4</f>
         <v>2.0777443213155201E-3</v>
       </c>
@@ -2711,7 +2745,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="25"/>
       <c r="Z19" s="21"/>
-      <c r="AA19" s="44"/>
+      <c r="AA19" s="42"/>
       <c r="AB19" s="25"/>
       <c r="AD19" t="s">
         <v>19</v>
@@ -2733,7 +2767,7 @@
       <c r="E20" s="7">
         <v>40</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="62">
         <v>400</v>
       </c>
       <c r="G20" s="7">
@@ -2742,79 +2776,163 @@
       <c r="H20">
         <v>1000</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="55">
         <v>250</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="23"/>
+      <c r="J20" s="40">
+        <f t="shared" ref="J20:J21" si="8">Y15/I$4</f>
+        <v>3.8379426291537998E-5</v>
+      </c>
+      <c r="K20" s="25">
+        <f t="shared" ref="K20:K21" si="9">Y15*I$4</f>
+        <v>9.5948565728844998E-2</v>
+      </c>
+      <c r="L20" s="40">
+        <f t="shared" ref="L20:L21" si="10">Z15/J$4</f>
+        <v>3.4694990730647399E-2</v>
+      </c>
+      <c r="M20" s="25">
+        <f t="shared" ref="M20:M21" si="11">Z15*J$4</f>
+        <v>86.737476826618504</v>
+      </c>
+      <c r="N20" s="72">
+        <f t="shared" ref="N20:N21" si="12">AA15/K$4</f>
+        <v>1.3306930886504141E-4</v>
+      </c>
+      <c r="O20" s="73">
+        <f t="shared" ref="O20:O21" si="13">AA15*K$4</f>
+        <v>0.33267327216260351</v>
+      </c>
+      <c r="P20" s="75">
+        <f t="shared" ref="P20:P21" si="14">AB15/L$4</f>
+        <v>9.6475289049801401E-3</v>
+      </c>
+      <c r="Q20" s="73">
+        <f t="shared" ref="Q20:Q21" si="15">AB15*L$4</f>
+        <v>24.118822262450351</v>
+      </c>
+      <c r="R20" s="74">
+        <f t="shared" ref="R20:R21" si="16">AC15/M$4</f>
+        <v>1.005903739391354E-4</v>
+      </c>
+      <c r="S20" s="26">
+        <f t="shared" ref="S20:S21" si="17">AC15*M$4</f>
+        <v>0.25147593484783853</v>
+      </c>
+      <c r="T20" s="74">
+        <f>AD15/N$4</f>
+        <v>57.269924309690197</v>
+      </c>
+      <c r="U20" s="26">
+        <f>AD15*N$4</f>
+        <v>143174.81077422548</v>
+      </c>
+      <c r="V20" s="19">
+        <f t="shared" ref="V20:V21" si="18">AE15/O$4</f>
+        <v>0.91437924624981204</v>
+      </c>
+      <c r="W20" s="23">
+        <f t="shared" ref="W20:W21" si="19">AE15*O$4</f>
+        <v>2285.9481156245301</v>
+      </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="21"/>
-      <c r="AA20" s="44"/>
+      <c r="AA20" s="42"/>
       <c r="AB20" s="25"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="33">
+      <c r="A21" s="31">
         <v>18</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="35" t="b">
+      <c r="C21" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="35" t="b">
+      <c r="D21" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="33">
         <v>40</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="63">
         <v>400</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="33">
         <v>4000</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="33">
         <v>1000</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="56">
         <v>250</v>
       </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
+      <c r="J21" s="76">
+        <f t="shared" si="8"/>
+        <v>2.4722748091472E-5</v>
+      </c>
+      <c r="K21" s="32">
+        <f t="shared" si="9"/>
+        <v>6.1806870228680005E-2</v>
+      </c>
+      <c r="L21" s="41">
+        <f t="shared" si="10"/>
+        <v>0.31019515227205596</v>
+      </c>
+      <c r="M21" s="32">
+        <f t="shared" si="11"/>
+        <v>775.48788068013994</v>
+      </c>
+      <c r="N21" s="77">
+        <f t="shared" si="12"/>
+        <v>1.67968615370261E-5</v>
+      </c>
+      <c r="O21" s="78">
+        <f t="shared" si="13"/>
+        <v>4.1992153842565251E-2</v>
+      </c>
+      <c r="P21" s="79">
+        <f t="shared" si="14"/>
+        <v>2.7867299276783603E-4</v>
+      </c>
+      <c r="Q21" s="78">
+        <f t="shared" si="15"/>
+        <v>0.69668248191959004</v>
+      </c>
+      <c r="R21" s="80">
+        <f t="shared" si="16"/>
+        <v>0.15813665237717761</v>
+      </c>
+      <c r="S21" s="39">
+        <f t="shared" si="17"/>
+        <v>395.34163094294399</v>
+      </c>
+      <c r="T21" s="80">
+        <f>AD16/N$4</f>
+        <v>25.735922028650201</v>
+      </c>
+      <c r="U21" s="81">
+        <f>AD16*N$4</f>
+        <v>64339.805071625509</v>
+      </c>
+      <c r="V21" s="34">
+        <f t="shared" si="18"/>
+        <v>5.7054805469326002</v>
+      </c>
+      <c r="W21" s="38">
+        <f t="shared" si="19"/>
+        <v>14263.701367331501</v>
+      </c>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
@@ -2832,7 +2950,7 @@
       <c r="E22" s="7">
         <v>10</v>
       </c>
-      <c r="F22" s="64">
+      <c r="F22" s="62">
         <v>100</v>
       </c>
       <c r="G22" s="7" t="s">
@@ -2841,7 +2959,7 @@
       <c r="H22" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="57">
+      <c r="I22" s="55">
         <v>1000</v>
       </c>
       <c r="J22" s="13" t="s">
@@ -2850,18 +2968,18 @@
       <c r="K22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="71">
+      <c r="L22" s="69">
         <f>Z17/J$5</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="71">
+        <v>0.19212142966156118</v>
+      </c>
+      <c r="M22" s="69">
         <f>Z17*J$5</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22" s="32" t="s">
+        <v>120.07589353847574</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="30" t="s">
         <v>19</v>
       </c>
       <c r="P22" s="26" t="s">
@@ -2888,12 +3006,12 @@
       <c r="W22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="X22" s="69"/>
+      <c r="X22" s="67"/>
       <c r="Y22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="44" t="s">
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="42" t="s">
         <v>19</v>
       </c>
       <c r="AB22" s="25" t="s">
@@ -2925,7 +3043,7 @@
       <c r="E23" s="7">
         <v>10</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="62">
         <v>100</v>
       </c>
       <c r="G23" s="7">
@@ -2934,41 +3052,65 @@
       <c r="H23">
         <v>4000</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="55">
         <v>1000</v>
       </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="25"/>
+      <c r="J23" s="40">
+        <f>Y18/I$5</f>
+        <v>3.5913418216433358E-4</v>
+      </c>
+      <c r="K23" s="25">
+        <f>Y18*I$5</f>
+        <v>0.2244588638527085</v>
+      </c>
       <c r="L23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
+      <c r="M23" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="72">
+        <f>AA18/K$5</f>
+        <v>1.4262101746139882E-6</v>
+      </c>
+      <c r="O23" s="73">
+        <f>AA18*K$5</f>
+        <v>8.9138135913374261E-4</v>
+      </c>
       <c r="P23" s="26" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
+      <c r="R23" s="74">
+        <f>AC18/M$5</f>
+        <v>2.3138134988844039E-3</v>
+      </c>
+      <c r="S23" s="26">
+        <f>AC18*M$5</f>
+        <v>1.4461334368027525</v>
+      </c>
       <c r="T23" s="27" t="s">
         <v>19</v>
       </c>
       <c r="U23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="V23" s="19"/>
-      <c r="W23" s="23"/>
+      <c r="V23" s="19">
+        <f>AE18/O$5</f>
+        <v>0.1160798080679684</v>
+      </c>
+      <c r="W23" s="23">
+        <f>AE18*O$5</f>
+        <v>72.549880042480254</v>
+      </c>
       <c r="X23" s="7"/>
       <c r="Y23" s="25"/>
       <c r="Z23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AA23" s="44"/>
+      <c r="AA23" s="42"/>
       <c r="AB23" s="25" t="s">
         <v>19</v>
       </c>
@@ -2992,7 +3134,7 @@
       <c r="E24" s="7">
         <v>10</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="62">
         <v>100</v>
       </c>
       <c r="G24" s="7">
@@ -3001,31 +3143,67 @@
       <c r="H24">
         <v>4000</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="55">
         <v>1000</v>
       </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
+      <c r="J24" s="40">
+        <f t="shared" ref="J24:J26" si="20">Y19/I$5</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="25">
+        <f t="shared" ref="K24:K26" si="21">Y19*I$5</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="40">
+        <f>Z19/J$5</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="25">
+        <f>Z19*J$5</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="72">
+        <f t="shared" ref="N24:N26" si="22">AA19/K$5</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="73">
+        <f t="shared" ref="O24:O26" si="23">AA19*K$5</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="75">
+        <f>AB19/L$5</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="73">
+        <f>AB19*L$5</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="74">
+        <f t="shared" ref="R24:R26" si="24">AC19/M$5</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="26">
+        <f t="shared" ref="S24:S26" si="25">AC19*M$5</f>
+        <v>0</v>
+      </c>
       <c r="T24" s="27" t="s">
         <v>19</v>
       </c>
       <c r="U24" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="V24" s="19"/>
-      <c r="W24" s="23"/>
+      <c r="V24" s="19">
+        <f t="shared" ref="V24:V26" si="26">AE19/O$5</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="23">
+        <f t="shared" ref="W24:W26" si="27">AE19*O$5</f>
+        <v>0</v>
+      </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="25"/>
       <c r="Z24" s="21"/>
-      <c r="AA24" s="44"/>
+      <c r="AA24" s="42"/>
       <c r="AB24" s="25"/>
       <c r="AD24" t="s">
         <v>19</v>
@@ -3047,7 +3225,7 @@
       <c r="E25" s="7">
         <v>10</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="62">
         <v>100</v>
       </c>
       <c r="G25" s="7">
@@ -3056,27 +3234,69 @@
       <c r="H25">
         <v>4000</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="55">
         <v>1000</v>
       </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="23"/>
+      <c r="J25" s="40">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <f t="shared" ref="L25:L26" si="28">Z20/J$5</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="25">
+        <f t="shared" ref="M25:M26" si="29">Z20*J$5</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="72">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="73">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="75">
+        <f t="shared" ref="P25:P26" si="30">AB20/L$5</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="73">
+        <f t="shared" ref="Q25:Q26" si="31">AB20*L$5</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="26">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="74">
+        <f>AD20/N$5</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="26">
+        <f>AD20*N$5</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="19">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="23">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="X25" s="7"/>
       <c r="Y25" s="25"/>
       <c r="Z25" s="21"/>
-      <c r="AA25" s="44"/>
+      <c r="AA25" s="42"/>
       <c r="AB25" s="25"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
@@ -3095,7 +3315,7 @@
       <c r="E26" s="7">
         <v>10</v>
       </c>
-      <c r="F26" s="64">
+      <c r="F26" s="62">
         <v>100</v>
       </c>
       <c r="G26" s="7">
@@ -3104,27 +3324,69 @@
       <c r="H26">
         <v>4000</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="55">
         <v>1000</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="23"/>
+      <c r="J26" s="40">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="40">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="72">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="73">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="75">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="73">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="26">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="74">
+        <f>AD21/N$5</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="26">
+        <f>AD21*N$5</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="19">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="23">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="13"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="42"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="40"/>
       <c r="AB26" s="13"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>

--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D698261C-0F98-403E-878F-C324196E16B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E34C0E-D3EA-4A4C-9ACF-C2F17AA5CAAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
@@ -1599,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3BE8-5908-4BE5-BD92-5B34615E80E7}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2334,7 +2334,9 @@
         <f>O$2*O$3</f>
         <v>10000</v>
       </c>
-      <c r="X15" s="7"/>
+      <c r="X15" s="7">
+        <v>0.36385055029548702</v>
+      </c>
       <c r="Y15">
         <v>1.9189713145768999E-3</v>
       </c>
@@ -2441,7 +2443,9 @@
         <f>O$2*O$3</f>
         <v>10000</v>
       </c>
-      <c r="X16" s="33"/>
+      <c r="X16" s="33">
+        <v>0.34099523439767898</v>
+      </c>
       <c r="Y16" s="33">
         <v>1.2361374045736001E-3</v>
       </c>
@@ -2536,7 +2540,9 @@
       <c r="W17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="X17" s="65"/>
+      <c r="X17" s="65">
+        <v>9.5833333333333298E-2</v>
+      </c>
       <c r="Y17" s="25" t="s">
         <v>19</v>
       </c>
@@ -2637,7 +2643,9 @@
         <f>AE13*O$4</f>
         <v>204.25784276515549</v>
       </c>
-      <c r="X18" s="7"/>
+      <c r="X18" s="7">
+        <v>0.12670147474967</v>
+      </c>
       <c r="Y18">
         <v>8.97835455410834E-3</v>
       </c>
@@ -2742,13 +2750,29 @@
         <f>AE14*O$4</f>
         <v>184.98574914007199</v>
       </c>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="25"/>
+      <c r="X19" s="7">
+        <v>0.109416858664647</v>
+      </c>
+      <c r="Y19" s="25">
+        <v>1.60776127264157E-2</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>9.4041011484286994</v>
+      </c>
+      <c r="AA19" s="42">
+        <v>1.64861927136844E-4</v>
+      </c>
+      <c r="AB19" s="25">
+        <v>0.107787132370938</v>
+      </c>
+      <c r="AC19">
+        <v>8.1263223838745E-3</v>
+      </c>
       <c r="AD19" t="s">
         <v>19</v>
+      </c>
+      <c r="AE19">
+        <v>2.9697194355018399</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
@@ -2835,11 +2859,30 @@
         <f t="shared" ref="W20:W21" si="19">AE15*O$4</f>
         <v>2285.9481156245301</v>
       </c>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="25"/>
+      <c r="X20" s="7">
+        <v>0.35879076206579102</v>
+      </c>
+      <c r="Y20" s="25">
+        <v>6.0936401066759402E-4</v>
+      </c>
+      <c r="Z20" s="21">
+        <v>127.86613403659</v>
+      </c>
+      <c r="AA20" s="42">
+        <v>2.2795730602265399E-3</v>
+      </c>
+      <c r="AB20" s="25">
+        <v>0.28402288566853101</v>
+      </c>
+      <c r="AC20">
+        <v>9.4274215673275805E-2</v>
+      </c>
+      <c r="AD20">
+        <v>665.27533384188598</v>
+      </c>
+      <c r="AE20">
+        <v>22.531951281158801</v>
+      </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
@@ -2926,13 +2969,27 @@
         <v>14263.701367331501</v>
       </c>
       <c r="X21" s="33"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
+      <c r="Y21" s="32">
+        <v>7.8434654010144603E-3</v>
+      </c>
+      <c r="Z21" s="36">
+        <v>32.541990747760202</v>
+      </c>
+      <c r="AA21" s="41">
+        <v>6.5195988316110601E-4</v>
+      </c>
+      <c r="AB21" s="32">
+        <v>0.10608944340345799</v>
+      </c>
+      <c r="AC21" s="33">
+        <v>1.7176025320107199E-3</v>
+      </c>
+      <c r="AD21" s="33">
+        <v>38336.204047126899</v>
+      </c>
+      <c r="AE21" s="33">
+        <v>109.63113789454999</v>
+      </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
@@ -3147,44 +3204,44 @@
         <v>1000</v>
       </c>
       <c r="J24" s="40">
-        <f t="shared" ref="J24:J26" si="20">Y19/I$5</f>
-        <v>0</v>
+        <f>Y19/I$5</f>
+        <v>6.4310450905662804E-4</v>
       </c>
       <c r="K24" s="25">
-        <f t="shared" ref="K24:K26" si="21">Y19*I$5</f>
-        <v>0</v>
+        <f>Y19*I$5</f>
+        <v>0.4019403181603925</v>
       </c>
       <c r="L24" s="40">
         <f>Z19/J$5</f>
-        <v>0</v>
+        <v>0.37616404593714797</v>
       </c>
       <c r="M24" s="25">
         <f>Z19*J$5</f>
-        <v>0</v>
+        <v>235.10252871071748</v>
       </c>
       <c r="N24" s="72">
-        <f t="shared" ref="N24:N26" si="22">AA19/K$5</f>
-        <v>0</v>
+        <f>AA19/K$5</f>
+        <v>6.5944770854737598E-6</v>
       </c>
       <c r="O24" s="73">
-        <f t="shared" ref="O24:O26" si="23">AA19*K$5</f>
-        <v>0</v>
+        <f>AA19*K$5</f>
+        <v>4.1215481784211E-3</v>
       </c>
       <c r="P24" s="75">
         <f>AB19/L$5</f>
-        <v>0</v>
+        <v>4.3114852948375202E-3</v>
       </c>
       <c r="Q24" s="73">
         <f>AB19*L$5</f>
-        <v>0</v>
+        <v>2.6946783092734501</v>
       </c>
       <c r="R24" s="74">
-        <f t="shared" ref="R24:R26" si="24">AC19/M$5</f>
-        <v>0</v>
+        <f>AC19/M$5</f>
+        <v>3.2505289535497998E-4</v>
       </c>
       <c r="S24" s="26">
-        <f t="shared" ref="S24:S26" si="25">AC19*M$5</f>
-        <v>0</v>
+        <f>AC19*M$5</f>
+        <v>0.20315805959686251</v>
       </c>
       <c r="T24" s="27" t="s">
         <v>19</v>
@@ -3193,12 +3250,12 @@
         <v>19</v>
       </c>
       <c r="V24" s="19">
-        <f t="shared" ref="V24:V26" si="26">AE19/O$5</f>
-        <v>0</v>
+        <f>AE19/O$5</f>
+        <v>0.1187887774200736</v>
       </c>
       <c r="W24" s="23">
-        <f t="shared" ref="W24:W26" si="27">AE19*O$5</f>
-        <v>0</v>
+        <f>AE19*O$5</f>
+        <v>74.242985887545998</v>
       </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="25"/>
@@ -3238,60 +3295,60 @@
         <v>1000</v>
       </c>
       <c r="J25" s="40">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f>Y20/I$5</f>
+        <v>2.437456042670376E-5</v>
       </c>
       <c r="K25" s="25">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>Y20*I$5</f>
+        <v>1.5234100266689851E-2</v>
       </c>
       <c r="L25" s="40">
-        <f t="shared" ref="L25:L26" si="28">Z20/J$5</f>
-        <v>0</v>
+        <f>Z20/J$5</f>
+        <v>5.1146453614635998</v>
       </c>
       <c r="M25" s="25">
-        <f t="shared" ref="M25:M26" si="29">Z20*J$5</f>
-        <v>0</v>
+        <f>Z20*J$5</f>
+        <v>3196.6533509147498</v>
       </c>
       <c r="N25" s="72">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f>AA20/K$5</f>
+        <v>9.1182922409061603E-5</v>
       </c>
       <c r="O25" s="73">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f>AA20*K$5</f>
+        <v>5.6989326505663497E-2</v>
       </c>
       <c r="P25" s="75">
-        <f t="shared" ref="P25:P26" si="30">AB20/L$5</f>
-        <v>0</v>
+        <f>AB20/L$5</f>
+        <v>1.1360915426741241E-2</v>
       </c>
       <c r="Q25" s="73">
-        <f t="shared" ref="Q25:Q26" si="31">AB20*L$5</f>
-        <v>0</v>
+        <f>AB20*L$5</f>
+        <v>7.1005721417132754</v>
       </c>
       <c r="R25" s="74">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f>AC20/M$5</f>
+        <v>3.7709686269310322E-3</v>
       </c>
       <c r="S25" s="26">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f>AC20*M$5</f>
+        <v>2.3568553918318953</v>
       </c>
       <c r="T25" s="74">
         <f>AD20/N$5</f>
-        <v>0</v>
+        <v>26.611013353675439</v>
       </c>
       <c r="U25" s="26">
         <f>AD20*N$5</f>
-        <v>0</v>
+        <v>16631.883346047151</v>
       </c>
       <c r="V25" s="19">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f>AE20/O$5</f>
+        <v>0.90127805124635207</v>
       </c>
       <c r="W25" s="23">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>AE20*O$5</f>
+        <v>563.29878202896998</v>
       </c>
       <c r="X25" s="7"/>
       <c r="Y25" s="25"/>
@@ -3328,60 +3385,60 @@
         <v>1000</v>
       </c>
       <c r="J26" s="40">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" ref="J26" si="20">Y21/I$5</f>
+        <v>3.137386160405784E-4</v>
       </c>
       <c r="K26" s="25">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" ref="K26" si="21">Y21*I$5</f>
+        <v>0.1960866350253615</v>
       </c>
       <c r="L26" s="40">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" ref="L26" si="22">Z21/J$5</f>
+        <v>1.3016796299104081</v>
       </c>
       <c r="M26" s="25">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" ref="M26" si="23">Z21*J$5</f>
+        <v>813.54976869400502</v>
       </c>
       <c r="N26" s="72">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" ref="N26" si="24">AA21/K$5</f>
+        <v>2.6078395326444242E-5</v>
       </c>
       <c r="O26" s="73">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" ref="O26" si="25">AA21*K$5</f>
+        <v>1.6298997079027652E-2</v>
       </c>
       <c r="P26" s="75">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" ref="P26" si="26">AB21/L$5</f>
+        <v>4.2435777361383197E-3</v>
       </c>
       <c r="Q26" s="73">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" ref="Q26" si="27">AB21*L$5</f>
+        <v>2.6522360850864497</v>
       </c>
       <c r="R26" s="74">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" ref="R26" si="28">AC21/M$5</f>
+        <v>6.8704101280428798E-5</v>
       </c>
       <c r="S26" s="26">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" ref="S26" si="29">AC21*M$5</f>
+        <v>4.2940063300267999E-2</v>
       </c>
       <c r="T26" s="74">
         <f>AD21/N$5</f>
-        <v>0</v>
+        <v>1533.4481618850759</v>
       </c>
       <c r="U26" s="26">
         <f>AD21*N$5</f>
-        <v>0</v>
+        <v>958405.10117817251</v>
       </c>
       <c r="V26" s="19">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" ref="V26" si="30">AE21/O$5</f>
+        <v>4.3852455157819996</v>
       </c>
       <c r="W26" s="23">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" ref="W26" si="31">AE21*O$5</f>
+        <v>2740.7784473637498</v>
       </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="13"/>
@@ -3419,6 +3476,18 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="X10:AE10"/>
   </mergeCells>
+  <conditionalFormatting sqref="X12:X16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>

--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E34C0E-D3EA-4A4C-9ACF-C2F17AA5CAAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1E2C88-BFEF-456B-8CE9-2757654CD697}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="61">
   <si>
     <t>Scenario</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>SSC: parameters (rho) + implementation</t>
+  </si>
+  <si>
+    <t>Dynamic stopping</t>
+  </si>
+  <si>
+    <t>Increased model size</t>
+  </si>
+  <si>
+    <t>Narrow more aggressively</t>
   </si>
 </sst>
 </file>
@@ -1597,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3BE8-5908-4BE5-BD92-5B34615E80E7}">
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="K5" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2968,7 +2977,9 @@
         <f t="shared" si="19"/>
         <v>14263.701367331501</v>
       </c>
-      <c r="X21" s="33"/>
+      <c r="X21" s="33">
+        <v>0.25955408552301701</v>
+      </c>
       <c r="Y21" s="32">
         <v>7.8434654010144603E-3</v>
       </c>
@@ -3163,16 +3174,26 @@
         <v>72.549880042480254</v>
       </c>
       <c r="X23" s="7"/>
-      <c r="Y23" s="25"/>
+      <c r="Y23">
+        <v>2.2960116233104198E-2</v>
+      </c>
       <c r="Z23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AA23" s="42"/>
+      <c r="AA23" s="70">
+        <v>8.7593013078191206E-6</v>
+      </c>
       <c r="AB23" s="25" t="s">
         <v>19</v>
       </c>
+      <c r="AC23">
+        <v>4.0139396740152197E-3</v>
+      </c>
       <c r="AD23" t="s">
         <v>19</v>
+      </c>
+      <c r="AE23">
+        <v>2.7430071377510501</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
@@ -3469,6 +3490,21 @@
         <v>57</v>
       </c>
     </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B10:F10"/>
@@ -3477,6 +3513,18 @@
     <mergeCell ref="X10:AE10"/>
   </mergeCells>
   <conditionalFormatting sqref="X12:X16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17:X21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1E2C88-BFEF-456B-8CE9-2757654CD697}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D0BAE-D4CD-4CBA-9A5C-18E20D662882}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
   <si>
     <t>Scenario</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>Narrow more aggressively</t>
+  </si>
+  <si>
+    <t>More rand on last layer</t>
+  </si>
+  <si>
+    <t>Init from prev optimum</t>
+  </si>
+  <si>
+    <t>sp_minimize</t>
   </si>
 </sst>
 </file>
@@ -714,7 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -729,123 +737,12 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
@@ -891,6 +788,19 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <vertical/>
       </border>
     </dxf>
@@ -1162,6 +1072,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1194,6 +1120,89 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1213,60 +1222,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81A43794-36BA-4286-8E57-EB145D3C24A9}" name="Table2" displayName="Table2" ref="A11:AE26" totalsRowShown="0" headerRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81A43794-36BA-4286-8E57-EB145D3C24A9}" name="Table2" displayName="Table2" ref="A11:AE26" totalsRowShown="0" headerRowBorderDxfId="21">
   <autoFilter ref="A11:AE26" xr:uid="{EADF17A0-5E30-4FE3-83F3-2800BBF336EF}"/>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{78AFA492-E6FF-4096-97CB-AA643430005E}" name="Number" dataDxfId="23"/>
-    <tableColumn id="25" xr3:uid="{DBD7BBAF-99BA-4975-8C5F-FF7CA363176B}" name="Model" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{78AFA492-E6FF-4096-97CB-AA643430005E}" name="Number" dataDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{DBD7BBAF-99BA-4975-8C5F-FF7CA363176B}" name="Model" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{8470D36B-4741-4F6B-B919-3B503AFF0FE0}" name="trainC"/>
     <tableColumn id="24" xr3:uid="{A5D3391A-6176-4310-B5C2-1283D2F19408}" name="giveC"/>
     <tableColumn id="75" xr3:uid="{45AC95CA-6711-47DD-B635-50391FF7DBD9}" name="n_rand"/>
-    <tableColumn id="76" xr3:uid="{4A33FF65-1677-4763-A178-A1A68171D5F8}" name="n_total" dataDxfId="0"/>
+    <tableColumn id="76" xr3:uid="{4A33FF65-1677-4763-A178-A1A68171D5F8}" name="n_total" dataDxfId="18"/>
     <tableColumn id="74" xr3:uid="{76A10300-7776-4ACC-806F-FE613C5EF4B2}" name="pre_ep"/>
     <tableColumn id="73" xr3:uid="{091000F4-E804-4A38-8A32-4F53DC9E93EE}" name="epochs"/>
-    <tableColumn id="3" xr3:uid="{CBD08D3B-C331-4129-A127-D68EB51CFF6E}" name="i1/i2" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{0285A612-E62D-432A-A5CE-805ABF08A8DC}" name="lp_min" dataDxfId="21">
+    <tableColumn id="3" xr3:uid="{CBD08D3B-C331-4129-A127-D68EB51CFF6E}" name="i1/i2" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{0285A612-E62D-432A-A5CE-805ABF08A8DC}" name="lp_min" dataDxfId="16">
       <calculatedColumnFormula>10^-6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3FDCD35D-8848-45BE-A011-16BC477CF6E2}" name="lp_max" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{3FDCD35D-8848-45BE-A011-16BC477CF6E2}" name="lp_max" dataDxfId="15">
       <calculatedColumnFormula>10^-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6B452DF6-EDA0-4DCB-9662-5DAD6563F31A}" name="a1_min" dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{6B452DF6-EDA0-4DCB-9662-5DAD6563F31A}" name="a1_min" dataDxfId="14">
       <calculatedColumnFormula>10^-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{91EA8E24-E5C1-4AE0-9214-9FEBC4A2FA61}" name="a1_max" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{91EA8E24-E5C1-4AE0-9214-9FEBC4A2FA61}" name="a1_max" dataDxfId="13">
       <calculatedColumnFormula>10^3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D534B48E-0EE8-4165-88E1-0621D36C813E}" name="lr_min" dataDxfId="17">
+    <tableColumn id="11" xr3:uid="{D534B48E-0EE8-4165-88E1-0621D36C813E}" name="lr_min" dataDxfId="12">
       <calculatedColumnFormula>10^-7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D985F1DB-08C4-495D-9AB8-B34C5CEF3B30}" name="lr_max" dataDxfId="16">
+    <tableColumn id="12" xr3:uid="{D985F1DB-08C4-495D-9AB8-B34C5CEF3B30}" name="lr_max" dataDxfId="11">
       <calculatedColumnFormula>10^-3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{1F62EC6C-202F-44ED-A855-F71C412EBDC5}" name="l1_min" dataDxfId="15">
+    <tableColumn id="47" xr3:uid="{1F62EC6C-202F-44ED-A855-F71C412EBDC5}" name="l1_min" dataDxfId="10">
       <calculatedColumnFormula>10^-6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{8A9CD75F-5985-46DF-9D95-7275ACACA68E}" name="l1_max" dataDxfId="14">
+    <tableColumn id="48" xr3:uid="{8A9CD75F-5985-46DF-9D95-7275ACACA68E}" name="l1_max" dataDxfId="9">
       <calculatedColumnFormula>10^-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{12D93BD7-5A8F-4557-B46A-203A8DF391C1}" name="l2_min" dataDxfId="13">
+    <tableColumn id="49" xr3:uid="{12D93BD7-5A8F-4557-B46A-203A8DF391C1}" name="l2_min" dataDxfId="8">
       <calculatedColumnFormula>10^-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" xr3:uid="{4D3A199E-B4A3-4279-B793-AB3978ECE31A}" name="l2_max" dataDxfId="12">
+    <tableColumn id="50" xr3:uid="{4D3A199E-B4A3-4279-B793-AB3978ECE31A}" name="l2_max" dataDxfId="7">
       <calculatedColumnFormula>10^-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="51" xr3:uid="{169D2A90-BBA3-40A4-BE42-EDAE87E2815B}" name="l3_min" dataDxfId="11"/>
-    <tableColumn id="52" xr3:uid="{2FE7FC08-7AC9-44CE-A841-E0ECC39D4A75}" name="l3_max" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{92277B1E-35F8-4642-A793-4D178BD0E235}" name="a2_min" dataDxfId="9">
+    <tableColumn id="51" xr3:uid="{169D2A90-BBA3-40A4-BE42-EDAE87E2815B}" name="l3_min" dataDxfId="6"/>
+    <tableColumn id="52" xr3:uid="{2FE7FC08-7AC9-44CE-A841-E0ECC39D4A75}" name="l3_max" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{92277B1E-35F8-4642-A793-4D178BD0E235}" name="a2_min" dataDxfId="4">
       <calculatedColumnFormula>10^-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{3AC55395-DA11-438E-91AF-1DC0DACF179B}" name="a2_max" dataDxfId="2">
+    <tableColumn id="14" xr3:uid="{3AC55395-DA11-438E-91AF-1DC0DACF179B}" name="a2_max" dataDxfId="3">
       <calculatedColumnFormula>10^3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="53" xr3:uid="{79D6EC1B-5DFA-4F4C-BC94-D49D26645698}" name="error" dataDxfId="8"/>
+    <tableColumn id="53" xr3:uid="{79D6EC1B-5DFA-4F4C-BC94-D49D26645698}" name="error" dataDxfId="2"/>
     <tableColumn id="54" xr3:uid="{559635E0-2BE9-4016-95B4-246431349D7C}" name="lr_prtr"/>
-    <tableColumn id="55" xr3:uid="{583F6650-C708-4DC8-88C0-E2E2EEBD4F23}" name="alph1" dataDxfId="7"/>
-    <tableColumn id="57" xr3:uid="{748E0574-A02A-401F-BDA3-1F32FAE29A42}" name="learnr" dataDxfId="6"/>
+    <tableColumn id="55" xr3:uid="{583F6650-C708-4DC8-88C0-E2E2EEBD4F23}" name="alph1" dataDxfId="1"/>
+    <tableColumn id="57" xr3:uid="{748E0574-A02A-401F-BDA3-1F32FAE29A42}" name="learnr" dataDxfId="0"/>
     <tableColumn id="58" xr3:uid="{755E59BB-0EE2-4FE2-84B2-054EE5B67348}" name="lamb1"/>
     <tableColumn id="59" xr3:uid="{60F91526-2124-414B-B5CC-61AAEE97C014}" name="lamb2"/>
     <tableColumn id="60" xr3:uid="{9153B781-FB9A-49DD-8474-A1624972B667}" name="lamb3"/>
@@ -1280,7 +1289,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81A51915-D99D-4859-85C1-557C273A617F}" name="Table3" displayName="Table3" ref="A1:E2" totalsRowShown="0">
   <autoFilter ref="A1:E2" xr:uid="{FB39D890-0BF6-441A-B212-6EC912A0CDAA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6664A9F6-2D81-459A-8170-A97971809FB5}" name="Parameter" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{6664A9F6-2D81-459A-8170-A97971809FB5}" name="Parameter" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{8015C4E0-DACB-462B-A494-00631B9B1C67}" name="Dataset"/>
     <tableColumn id="5" xr3:uid="{5942BF33-B200-491E-BDB5-A6F51047AB49}" name="opt_func"/>
     <tableColumn id="3" xr3:uid="{4F7B7929-9040-4B59-AADF-628A7FA3C0DE}" name="seed"/>
@@ -1294,8 +1303,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A1B3A39-5661-4033-8C69-C1886D56FE64}" name="Table4" displayName="Table4" ref="H1:O5" totalsRowShown="0">
   <autoFilter ref="H1:O5" xr:uid="{D7B7C410-31D4-42E4-991A-9F1D647A833C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{ABF8FF28-AC5E-4B6F-B762-0F895D130616}" name="Feature" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{FBABDFE0-B7A2-4611-AD61-65A4B29DBE24}" name="lr_prtr" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{ABF8FF28-AC5E-4B6F-B762-0F895D130616}" name="Feature" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{FBABDFE0-B7A2-4611-AD61-65A4B29DBE24}" name="lr_prtr" dataDxfId="22">
       <calculatedColumnFormula>10^4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{AF82A8E8-79F0-4C5C-9448-9CA7BF4775DC}" name="alph1"/>
@@ -1606,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3BE8-5908-4BE5-BD92-5B34615E80E7}">
-  <dimension ref="A1:AE41"/>
+  <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K5" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1789,30 +1798,39 @@
         <v>25</v>
       </c>
       <c r="J5" s="10">
-        <f t="shared" ref="J5" si="2">J4/2</f>
+        <f t="shared" ref="J5:J6" si="2">J4/2</f>
         <v>25</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" ref="K5" si="3">K4/2</f>
+        <f t="shared" ref="K5:K6" si="3">K4/2</f>
         <v>25</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" ref="L5" si="4">L4/2</f>
+        <f t="shared" ref="L5:L6" si="4">L4/2</f>
         <v>25</v>
       </c>
       <c r="M5" s="10">
-        <f t="shared" ref="M5" si="5">M4/2</f>
+        <f t="shared" ref="M5:M6" si="5">M4/2</f>
         <v>25</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" ref="N5" si="6">N4/2</f>
+        <f t="shared" ref="N5:N6" si="6">N4/2</f>
         <v>25</v>
       </c>
       <c r="O5" s="10">
-        <f t="shared" ref="O5" si="7">O4/2</f>
+        <f t="shared" ref="O5:O6" si="7">O4/2</f>
         <v>25</v>
       </c>
-      <c r="R5" s="71"/>
+      <c r="R5" s="70"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -2136,7 +2154,7 @@
       <c r="Z13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AA13" s="70">
+      <c r="AA13" s="69">
         <v>1.1633164353256201E-5</v>
       </c>
       <c r="AB13" s="7" t="s">
@@ -2511,11 +2529,11 @@
       <c r="K17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="69">
+      <c r="L17" s="68">
         <f>Z12/J$4</f>
         <v>0.13816721113271599</v>
       </c>
-      <c r="M17" s="69">
+      <c r="M17" s="68">
         <f>Z12*J$4</f>
         <v>345.41802783178997</v>
       </c>
@@ -2613,14 +2631,14 @@
       <c r="L18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="72">
+      <c r="M18" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="71">
         <f>AA13/K$4</f>
         <v>2.3266328706512403E-7</v>
       </c>
-      <c r="O18" s="73">
+      <c r="O18" s="72">
         <f>AA13*K$4</f>
         <v>5.8165821766281006E-4</v>
       </c>
@@ -2630,7 +2648,7 @@
       <c r="Q18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="74">
+      <c r="R18" s="73">
         <f>AC13/M$4</f>
         <v>1.017646770983424E-4</v>
       </c>
@@ -2661,7 +2679,7 @@
       <c r="Z18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AA18" s="70">
+      <c r="AA18" s="69">
         <v>3.5655254365349703E-5</v>
       </c>
       <c r="AB18" s="25" t="s">
@@ -2721,23 +2739,23 @@
         <f>Z14*J$4</f>
         <v>11485.888221308249</v>
       </c>
-      <c r="N19" s="72">
+      <c r="N19" s="71">
         <f>AA14/K$4</f>
         <v>2.6029645774327199E-5</v>
       </c>
-      <c r="O19" s="73">
+      <c r="O19" s="72">
         <f>AA14*K$4</f>
         <v>6.5074114435817995E-2</v>
       </c>
-      <c r="P19" s="75">
+      <c r="P19" s="74">
         <f>AB14/L$4</f>
         <v>4.9290472206784206E-3</v>
       </c>
-      <c r="Q19" s="73">
+      <c r="Q19" s="72">
         <f>AB14*L$4</f>
         <v>12.32261805169605</v>
       </c>
-      <c r="R19" s="74">
+      <c r="R19" s="73">
         <f>AC14/M$4</f>
         <v>2.0777443213155201E-3</v>
       </c>
@@ -2828,23 +2846,23 @@
         <f t="shared" ref="M20:M21" si="11">Z15*J$4</f>
         <v>86.737476826618504</v>
       </c>
-      <c r="N20" s="72">
+      <c r="N20" s="71">
         <f t="shared" ref="N20:N21" si="12">AA15/K$4</f>
         <v>1.3306930886504141E-4</v>
       </c>
-      <c r="O20" s="73">
+      <c r="O20" s="72">
         <f t="shared" ref="O20:O21" si="13">AA15*K$4</f>
         <v>0.33267327216260351</v>
       </c>
-      <c r="P20" s="75">
+      <c r="P20" s="74">
         <f t="shared" ref="P20:P21" si="14">AB15/L$4</f>
         <v>9.6475289049801401E-3</v>
       </c>
-      <c r="Q20" s="73">
+      <c r="Q20" s="72">
         <f t="shared" ref="Q20:Q21" si="15">AB15*L$4</f>
         <v>24.118822262450351</v>
       </c>
-      <c r="R20" s="74">
+      <c r="R20" s="73">
         <f t="shared" ref="R20:R21" si="16">AC15/M$4</f>
         <v>1.005903739391354E-4</v>
       </c>
@@ -2852,7 +2870,7 @@
         <f t="shared" ref="S20:S21" si="17">AC15*M$4</f>
         <v>0.25147593484783853</v>
       </c>
-      <c r="T20" s="74">
+      <c r="T20" s="73">
         <f>AD15/N$4</f>
         <v>57.269924309690197</v>
       </c>
@@ -2921,7 +2939,7 @@
       <c r="I21" s="56">
         <v>250</v>
       </c>
-      <c r="J21" s="76">
+      <c r="J21" s="75">
         <f t="shared" si="8"/>
         <v>2.4722748091472E-5</v>
       </c>
@@ -2937,23 +2955,23 @@
         <f t="shared" si="11"/>
         <v>775.48788068013994</v>
       </c>
-      <c r="N21" s="77">
+      <c r="N21" s="76">
         <f t="shared" si="12"/>
         <v>1.67968615370261E-5</v>
       </c>
-      <c r="O21" s="78">
+      <c r="O21" s="77">
         <f t="shared" si="13"/>
         <v>4.1992153842565251E-2</v>
       </c>
-      <c r="P21" s="79">
+      <c r="P21" s="78">
         <f t="shared" si="14"/>
         <v>2.7867299276783603E-4</v>
       </c>
-      <c r="Q21" s="78">
+      <c r="Q21" s="77">
         <f t="shared" si="15"/>
         <v>0.69668248191959004</v>
       </c>
-      <c r="R21" s="80">
+      <c r="R21" s="79">
         <f t="shared" si="16"/>
         <v>0.15813665237717761</v>
       </c>
@@ -2961,11 +2979,11 @@
         <f t="shared" si="17"/>
         <v>395.34163094294399</v>
       </c>
-      <c r="T21" s="80">
+      <c r="T21" s="79">
         <f>AD16/N$4</f>
         <v>25.735922028650201</v>
       </c>
-      <c r="U21" s="81">
+      <c r="U21" s="80">
         <f>AD16*N$4</f>
         <v>64339.805071625509</v>
       </c>
@@ -3036,11 +3054,11 @@
       <c r="K22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="69">
+      <c r="L22" s="68">
         <f>Z17/J$5</f>
         <v>0.19212142966156118</v>
       </c>
-      <c r="M22" s="69">
+      <c r="M22" s="68">
         <f>Z17*J$5</f>
         <v>120.07589353847574</v>
       </c>
@@ -3074,11 +3092,15 @@
       <c r="W22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="X22" s="67"/>
+      <c r="X22">
+        <v>0.11944444444444401</v>
+      </c>
       <c r="Y22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Z22" s="68"/>
+      <c r="Z22" s="67">
+        <v>3.0041056435615601</v>
+      </c>
       <c r="AA22" s="42" t="s">
         <v>19</v>
       </c>
@@ -3134,14 +3156,14 @@
       <c r="L23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="72">
+      <c r="M23" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="71">
         <f>AA18/K$5</f>
         <v>1.4262101746139882E-6</v>
       </c>
-      <c r="O23" s="73">
+      <c r="O23" s="72">
         <f>AA18*K$5</f>
         <v>8.9138135913374261E-4</v>
       </c>
@@ -3151,7 +3173,7 @@
       <c r="Q23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R23" s="74">
+      <c r="R23" s="73">
         <f>AC18/M$5</f>
         <v>2.3138134988844039E-3</v>
       </c>
@@ -3173,27 +3195,29 @@
         <f>AE18*O$5</f>
         <v>72.549880042480254</v>
       </c>
-      <c r="X23" s="7"/>
+      <c r="X23" s="7">
+        <v>0.130582679944476</v>
+      </c>
       <c r="Y23">
-        <v>2.2960116233104198E-2</v>
+        <v>5.8045218086709097E-3</v>
       </c>
       <c r="Z23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AA23" s="70">
-        <v>8.7593013078191206E-6</v>
+      <c r="AA23" s="69">
+        <v>2.1662472497624799E-6</v>
       </c>
       <c r="AB23" s="25" t="s">
         <v>19</v>
       </c>
       <c r="AC23">
-        <v>4.0139396740152197E-3</v>
+        <v>3.3864817264976899E-3</v>
       </c>
       <c r="AD23" t="s">
         <v>19</v>
       </c>
       <c r="AE23">
-        <v>2.7430071377510501</v>
+        <v>2.8753444366180698</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
@@ -3240,23 +3264,23 @@
         <f>Z19*J$5</f>
         <v>235.10252871071748</v>
       </c>
-      <c r="N24" s="72">
+      <c r="N24" s="71">
         <f>AA19/K$5</f>
         <v>6.5944770854737598E-6</v>
       </c>
-      <c r="O24" s="73">
+      <c r="O24" s="72">
         <f>AA19*K$5</f>
         <v>4.1215481784211E-3</v>
       </c>
-      <c r="P24" s="75">
+      <c r="P24" s="74">
         <f>AB19/L$5</f>
         <v>4.3114852948375202E-3</v>
       </c>
-      <c r="Q24" s="73">
+      <c r="Q24" s="72">
         <f>AB19*L$5</f>
         <v>2.6946783092734501</v>
       </c>
-      <c r="R24" s="74">
+      <c r="R24" s="73">
         <f>AC19/M$5</f>
         <v>3.2505289535497998E-4</v>
       </c>
@@ -3278,13 +3302,29 @@
         <f>AE19*O$5</f>
         <v>74.242985887545998</v>
       </c>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="25"/>
+      <c r="X24" s="7">
+        <v>0.12651559086210301</v>
+      </c>
+      <c r="Y24">
+        <v>1.2072002534284101E-3</v>
+      </c>
+      <c r="Z24">
+        <v>0.51089487687048996</v>
+      </c>
+      <c r="AA24" s="69">
+        <v>4.5948393911067299E-5</v>
+      </c>
+      <c r="AB24">
+        <v>0.20028695612945799</v>
+      </c>
+      <c r="AC24">
+        <v>7.4377447368825203E-4</v>
+      </c>
       <c r="AD24" t="s">
         <v>19</v>
+      </c>
+      <c r="AE24">
+        <v>3.1097825534170398</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
@@ -3331,23 +3371,23 @@
         <f>Z20*J$5</f>
         <v>3196.6533509147498</v>
       </c>
-      <c r="N25" s="72">
+      <c r="N25" s="71">
         <f>AA20/K$5</f>
         <v>9.1182922409061603E-5</v>
       </c>
-      <c r="O25" s="73">
+      <c r="O25" s="72">
         <f>AA20*K$5</f>
         <v>5.6989326505663497E-2</v>
       </c>
-      <c r="P25" s="75">
+      <c r="P25" s="74">
         <f>AB20/L$5</f>
         <v>1.1360915426741241E-2</v>
       </c>
-      <c r="Q25" s="73">
+      <c r="Q25" s="72">
         <f>AB20*L$5</f>
         <v>7.1005721417132754</v>
       </c>
-      <c r="R25" s="74">
+      <c r="R25" s="73">
         <f>AC20/M$5</f>
         <v>3.7709686269310322E-3</v>
       </c>
@@ -3355,7 +3395,7 @@
         <f>AC20*M$5</f>
         <v>2.3568553918318953</v>
       </c>
-      <c r="T25" s="74">
+      <c r="T25" s="73">
         <f>AD20/N$5</f>
         <v>26.611013353675439</v>
       </c>
@@ -3371,11 +3411,30 @@
         <f>AE20*O$5</f>
         <v>563.29878202896998</v>
       </c>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="25"/>
+      <c r="X25" s="7">
+        <v>0.465087850104628</v>
+      </c>
+      <c r="Y25">
+        <v>1.00264024608149E-3</v>
+      </c>
+      <c r="Z25">
+        <v>1857.0920453019901</v>
+      </c>
+      <c r="AA25">
+        <v>2.7699454308859001E-3</v>
+      </c>
+      <c r="AB25">
+        <v>0.303227217793404</v>
+      </c>
+      <c r="AC25">
+        <v>7.3011480172514099E-3</v>
+      </c>
+      <c r="AD25">
+        <v>543.44637611532698</v>
+      </c>
+      <c r="AE25">
+        <v>1.82751771327837</v>
+      </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
@@ -3421,23 +3480,23 @@
         <f t="shared" ref="M26" si="23">Z21*J$5</f>
         <v>813.54976869400502</v>
       </c>
-      <c r="N26" s="72">
+      <c r="N26" s="71">
         <f t="shared" ref="N26" si="24">AA21/K$5</f>
         <v>2.6078395326444242E-5</v>
       </c>
-      <c r="O26" s="73">
+      <c r="O26" s="72">
         <f t="shared" ref="O26" si="25">AA21*K$5</f>
         <v>1.6298997079027652E-2</v>
       </c>
-      <c r="P26" s="75">
+      <c r="P26" s="74">
         <f t="shared" ref="P26" si="26">AB21/L$5</f>
         <v>4.2435777361383197E-3</v>
       </c>
-      <c r="Q26" s="73">
+      <c r="Q26" s="72">
         <f t="shared" ref="Q26" si="27">AB21*L$5</f>
         <v>2.6522360850864497</v>
       </c>
-      <c r="R26" s="74">
+      <c r="R26" s="73">
         <f t="shared" ref="R26" si="28">AC21/M$5</f>
         <v>6.8704101280428798E-5</v>
       </c>
@@ -3445,7 +3504,7 @@
         <f t="shared" ref="S26" si="29">AC21*M$5</f>
         <v>4.2940063300267999E-2</v>
       </c>
-      <c r="T26" s="74">
+      <c r="T26" s="73">
         <f>AD21/N$5</f>
         <v>1533.4481618850759</v>
       </c>
@@ -3461,14 +3520,30 @@
         <f t="shared" ref="W26" si="31">AE21*O$5</f>
         <v>2740.7784473637498</v>
       </c>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
+      <c r="X26" s="7">
+        <v>0.15152497279535199</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>1.08193051300563E-2</v>
+      </c>
+      <c r="Z26" s="28">
+        <v>17.2880996928148</v>
+      </c>
+      <c r="AA26" s="40">
+        <v>1.2416053275586499E-3</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>0.26863450982301901</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>2.1124683924387301E-2</v>
+      </c>
+      <c r="AD26" s="7">
+        <v>553589.06574087404</v>
+      </c>
+      <c r="AE26" s="7">
+        <v>58.397317625981898</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -3503,6 +3578,21 @@
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3513,6 +3603,18 @@
     <mergeCell ref="X10:AE10"/>
   </mergeCells>
   <conditionalFormatting sqref="X12:X16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17:X21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3524,7 +3626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X17:X21">
+  <conditionalFormatting sqref="X22:X26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D0BAE-D4CD-4CBA-9A5C-18E20D662882}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCE30A1-8E0B-4E13-85A4-4968AD4EE277}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>re_seeds</t>
   </si>
   <si>
-    <t>0 - 5</t>
-  </si>
-  <si>
     <t>SSC: parameters (rho) + implementation</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>sp_minimize</t>
+  </si>
+  <si>
+    <t>[100, 130)</t>
   </si>
 </sst>
 </file>
@@ -1617,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3BE8-5908-4BE5-BD92-5B34615E80E7}">
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H2" s="43" t="s">
         <v>45</v>
@@ -2146,7 +2146,7 @@
         <v>10000</v>
       </c>
       <c r="X13" s="7">
-        <v>0.10918688740324201</v>
+        <v>0.13482600763470201</v>
       </c>
       <c r="Y13">
         <v>6.3720283621781096E-3</v>
@@ -2253,7 +2253,7 @@
         <v>10000</v>
       </c>
       <c r="X14" s="7">
-        <v>0.10433078398359601</v>
+        <v>0.12200828732853999</v>
       </c>
       <c r="Y14">
         <v>7.1515104499875201E-3</v>
@@ -2362,7 +2362,7 @@
         <v>10000</v>
       </c>
       <c r="X15" s="7">
-        <v>0.36385055029548702</v>
+        <v>0.375835493867756</v>
       </c>
       <c r="Y15">
         <v>1.9189713145768999E-3</v>
@@ -2471,7 +2471,7 @@
         <v>10000</v>
       </c>
       <c r="X16" s="33">
-        <v>0.34099523439767898</v>
+        <v>0.34684615824313197</v>
       </c>
       <c r="Y16" s="33">
         <v>1.2361374045736001E-3</v>
@@ -2671,7 +2671,7 @@
         <v>204.25784276515549</v>
       </c>
       <c r="X18" s="7">
-        <v>0.12670147474967</v>
+        <v>0.120615213788776</v>
       </c>
       <c r="Y18">
         <v>8.97835455410834E-3</v>
@@ -2778,7 +2778,7 @@
         <v>184.98574914007199</v>
       </c>
       <c r="X19" s="7">
-        <v>0.109416858664647</v>
+        <v>0.120191724473232</v>
       </c>
       <c r="Y19" s="25">
         <v>1.60776127264157E-2</v>
@@ -2887,7 +2887,7 @@
         <v>2285.9481156245301</v>
       </c>
       <c r="X20" s="7">
-        <v>0.35879076206579102</v>
+        <v>0.35035041030597203</v>
       </c>
       <c r="Y20" s="25">
         <v>6.0936401066759402E-4</v>
@@ -2996,7 +2996,7 @@
         <v>14263.701367331501</v>
       </c>
       <c r="X21" s="33">
-        <v>0.25955408552301701</v>
+        <v>0.26465531218853899</v>
       </c>
       <c r="Y21" s="32">
         <v>7.8434654010144603E-3</v>
@@ -3196,7 +3196,7 @@
         <v>72.549880042480254</v>
       </c>
       <c r="X23" s="7">
-        <v>0.130582679944476</v>
+        <v>0.129573706828434</v>
       </c>
       <c r="Y23">
         <v>5.8045218086709097E-3</v>
@@ -3303,7 +3303,7 @@
         <v>74.242985887545998</v>
       </c>
       <c r="X24" s="7">
-        <v>0.12651559086210301</v>
+        <v>0.12868836723166699</v>
       </c>
       <c r="Y24">
         <v>1.2072002534284101E-3</v>
@@ -3412,7 +3412,7 @@
         <v>563.29878202896998</v>
       </c>
       <c r="X25" s="7">
-        <v>0.465087850104628</v>
+        <v>0.46669992536550797</v>
       </c>
       <c r="Y25">
         <v>1.00264024608149E-3</v>
@@ -3521,7 +3521,7 @@
         <v>2740.7784473637498</v>
       </c>
       <c r="X26" s="7">
-        <v>0.15152497279535199</v>
+        <v>0.151549683075583</v>
       </c>
       <c r="Y26" s="13">
         <v>1.08193051300563E-2</v>
@@ -3562,37 +3562,37 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCE30A1-8E0B-4E13-85A4-4968AD4EE277}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D4D87-F3E3-4353-B795-9EE4D80336A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
+    <workbookView minimized="1" xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="67">
   <si>
     <t>Scenario</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>[100, 130)</t>
+  </si>
+  <si>
+    <t>Don't repeat pre-train</t>
+  </si>
+  <si>
+    <t>Remove lr decay?</t>
+  </si>
+  <si>
+    <t>!!! NO PCA</t>
   </si>
 </sst>
 </file>
@@ -637,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -645,104 +654,167 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
@@ -1120,89 +1192,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1222,60 +1211,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81A43794-36BA-4286-8E57-EB145D3C24A9}" name="Table2" displayName="Table2" ref="A11:AE26" totalsRowShown="0" headerRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81A43794-36BA-4286-8E57-EB145D3C24A9}" name="Table2" displayName="Table2" ref="A11:AE26" totalsRowShown="0" headerRowBorderDxfId="24">
   <autoFilter ref="A11:AE26" xr:uid="{EADF17A0-5E30-4FE3-83F3-2800BBF336EF}"/>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{78AFA492-E6FF-4096-97CB-AA643430005E}" name="Number" dataDxfId="20"/>
-    <tableColumn id="25" xr3:uid="{DBD7BBAF-99BA-4975-8C5F-FF7CA363176B}" name="Model" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{78AFA492-E6FF-4096-97CB-AA643430005E}" name="Number" dataDxfId="23"/>
+    <tableColumn id="25" xr3:uid="{DBD7BBAF-99BA-4975-8C5F-FF7CA363176B}" name="Model" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{8470D36B-4741-4F6B-B919-3B503AFF0FE0}" name="trainC"/>
     <tableColumn id="24" xr3:uid="{A5D3391A-6176-4310-B5C2-1283D2F19408}" name="giveC"/>
     <tableColumn id="75" xr3:uid="{45AC95CA-6711-47DD-B635-50391FF7DBD9}" name="n_rand"/>
-    <tableColumn id="76" xr3:uid="{4A33FF65-1677-4763-A178-A1A68171D5F8}" name="n_total" dataDxfId="18"/>
+    <tableColumn id="76" xr3:uid="{4A33FF65-1677-4763-A178-A1A68171D5F8}" name="n_total" dataDxfId="21"/>
     <tableColumn id="74" xr3:uid="{76A10300-7776-4ACC-806F-FE613C5EF4B2}" name="pre_ep"/>
     <tableColumn id="73" xr3:uid="{091000F4-E804-4A38-8A32-4F53DC9E93EE}" name="epochs"/>
-    <tableColumn id="3" xr3:uid="{CBD08D3B-C331-4129-A127-D68EB51CFF6E}" name="i1/i2" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{0285A612-E62D-432A-A5CE-805ABF08A8DC}" name="lp_min" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{CBD08D3B-C331-4129-A127-D68EB51CFF6E}" name="i1/i2" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{0285A612-E62D-432A-A5CE-805ABF08A8DC}" name="lp_min" dataDxfId="19">
       <calculatedColumnFormula>10^-6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3FDCD35D-8848-45BE-A011-16BC477CF6E2}" name="lp_max" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{3FDCD35D-8848-45BE-A011-16BC477CF6E2}" name="lp_max" dataDxfId="18">
       <calculatedColumnFormula>10^-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6B452DF6-EDA0-4DCB-9662-5DAD6563F31A}" name="a1_min" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{6B452DF6-EDA0-4DCB-9662-5DAD6563F31A}" name="a1_min" dataDxfId="17">
       <calculatedColumnFormula>10^-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{91EA8E24-E5C1-4AE0-9214-9FEBC4A2FA61}" name="a1_max" dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{91EA8E24-E5C1-4AE0-9214-9FEBC4A2FA61}" name="a1_max" dataDxfId="16">
       <calculatedColumnFormula>10^3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D534B48E-0EE8-4165-88E1-0621D36C813E}" name="lr_min" dataDxfId="12">
+    <tableColumn id="11" xr3:uid="{D534B48E-0EE8-4165-88E1-0621D36C813E}" name="lr_min" dataDxfId="15">
       <calculatedColumnFormula>10^-7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D985F1DB-08C4-495D-9AB8-B34C5CEF3B30}" name="lr_max" dataDxfId="11">
+    <tableColumn id="12" xr3:uid="{D985F1DB-08C4-495D-9AB8-B34C5CEF3B30}" name="lr_max" dataDxfId="14">
       <calculatedColumnFormula>10^-3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{1F62EC6C-202F-44ED-A855-F71C412EBDC5}" name="l1_min" dataDxfId="10">
+    <tableColumn id="47" xr3:uid="{1F62EC6C-202F-44ED-A855-F71C412EBDC5}" name="l1_min" dataDxfId="13">
       <calculatedColumnFormula>10^-6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{8A9CD75F-5985-46DF-9D95-7275ACACA68E}" name="l1_max" dataDxfId="9">
+    <tableColumn id="48" xr3:uid="{8A9CD75F-5985-46DF-9D95-7275ACACA68E}" name="l1_max" dataDxfId="12">
       <calculatedColumnFormula>10^-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{12D93BD7-5A8F-4557-B46A-203A8DF391C1}" name="l2_min" dataDxfId="8">
+    <tableColumn id="49" xr3:uid="{12D93BD7-5A8F-4557-B46A-203A8DF391C1}" name="l2_min" dataDxfId="11">
       <calculatedColumnFormula>10^-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" xr3:uid="{4D3A199E-B4A3-4279-B793-AB3978ECE31A}" name="l2_max" dataDxfId="7">
+    <tableColumn id="50" xr3:uid="{4D3A199E-B4A3-4279-B793-AB3978ECE31A}" name="l2_max" dataDxfId="10">
       <calculatedColumnFormula>10^-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="51" xr3:uid="{169D2A90-BBA3-40A4-BE42-EDAE87E2815B}" name="l3_min" dataDxfId="6"/>
-    <tableColumn id="52" xr3:uid="{2FE7FC08-7AC9-44CE-A841-E0ECC39D4A75}" name="l3_max" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{92277B1E-35F8-4642-A793-4D178BD0E235}" name="a2_min" dataDxfId="4">
+    <tableColumn id="51" xr3:uid="{169D2A90-BBA3-40A4-BE42-EDAE87E2815B}" name="l3_min" dataDxfId="9"/>
+    <tableColumn id="52" xr3:uid="{2FE7FC08-7AC9-44CE-A841-E0ECC39D4A75}" name="l3_max" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{92277B1E-35F8-4642-A793-4D178BD0E235}" name="a2_min" dataDxfId="7">
       <calculatedColumnFormula>10^-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{3AC55395-DA11-438E-91AF-1DC0DACF179B}" name="a2_max" dataDxfId="3">
+    <tableColumn id="14" xr3:uid="{3AC55395-DA11-438E-91AF-1DC0DACF179B}" name="a2_max" dataDxfId="6">
       <calculatedColumnFormula>10^3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="53" xr3:uid="{79D6EC1B-5DFA-4F4C-BC94-D49D26645698}" name="error" dataDxfId="2"/>
+    <tableColumn id="53" xr3:uid="{79D6EC1B-5DFA-4F4C-BC94-D49D26645698}" name="error" dataDxfId="5"/>
     <tableColumn id="54" xr3:uid="{559635E0-2BE9-4016-95B4-246431349D7C}" name="lr_prtr"/>
-    <tableColumn id="55" xr3:uid="{583F6650-C708-4DC8-88C0-E2E2EEBD4F23}" name="alph1" dataDxfId="1"/>
-    <tableColumn id="57" xr3:uid="{748E0574-A02A-401F-BDA3-1F32FAE29A42}" name="learnr" dataDxfId="0"/>
+    <tableColumn id="55" xr3:uid="{583F6650-C708-4DC8-88C0-E2E2EEBD4F23}" name="alph1" dataDxfId="4"/>
+    <tableColumn id="57" xr3:uid="{748E0574-A02A-401F-BDA3-1F32FAE29A42}" name="learnr" dataDxfId="3"/>
     <tableColumn id="58" xr3:uid="{755E59BB-0EE2-4FE2-84B2-054EE5B67348}" name="lamb1"/>
     <tableColumn id="59" xr3:uid="{60F91526-2124-414B-B5CC-61AAEE97C014}" name="lamb2"/>
     <tableColumn id="60" xr3:uid="{9153B781-FB9A-49DD-8474-A1624972B667}" name="lamb3"/>
@@ -1289,7 +1278,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81A51915-D99D-4859-85C1-557C273A617F}" name="Table3" displayName="Table3" ref="A1:E2" totalsRowShown="0">
   <autoFilter ref="A1:E2" xr:uid="{FB39D890-0BF6-441A-B212-6EC912A0CDAA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6664A9F6-2D81-459A-8170-A97971809FB5}" name="Parameter" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{6664A9F6-2D81-459A-8170-A97971809FB5}" name="Parameter" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{8015C4E0-DACB-462B-A494-00631B9B1C67}" name="Dataset"/>
     <tableColumn id="5" xr3:uid="{5942BF33-B200-491E-BDB5-A6F51047AB49}" name="opt_func"/>
     <tableColumn id="3" xr3:uid="{4F7B7929-9040-4B59-AADF-628A7FA3C0DE}" name="seed"/>
@@ -1303,8 +1292,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A1B3A39-5661-4033-8C69-C1886D56FE64}" name="Table4" displayName="Table4" ref="H1:O5" totalsRowShown="0">
   <autoFilter ref="H1:O5" xr:uid="{D7B7C410-31D4-42E4-991A-9F1D647A833C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{ABF8FF28-AC5E-4B6F-B762-0F895D130616}" name="Feature" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{FBABDFE0-B7A2-4611-AD61-65A4B29DBE24}" name="lr_prtr" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{ABF8FF28-AC5E-4B6F-B762-0F895D130616}" name="Feature" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{FBABDFE0-B7A2-4611-AD61-65A4B29DBE24}" name="lr_prtr" dataDxfId="0">
       <calculatedColumnFormula>10^4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{AF82A8E8-79F0-4C5C-9448-9CA7BF4775DC}" name="alph1"/>
@@ -1615,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3BE8-5908-4BE5-BD92-5B34615E80E7}">
-  <dimension ref="A1:AE44"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,7 +1624,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1650,33 +1639,33 @@
       <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
@@ -1691,7 +1680,7 @@
       <c r="E2" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="31" t="s">
         <v>45</v>
       </c>
       <c r="I2">
@@ -1757,123 +1746,114 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4">
         <f>I3/2</f>
         <v>50</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4">
         <f t="shared" ref="J4:O4" si="1">J3/2</f>
         <v>50</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5">
         <f>I4/2</f>
         <v>25</v>
       </c>
-      <c r="J5" s="10">
-        <f t="shared" ref="J5:J6" si="2">J4/2</f>
+      <c r="J5">
+        <f t="shared" ref="J5" si="2">J4/2</f>
         <v>25</v>
       </c>
-      <c r="K5" s="10">
-        <f t="shared" ref="K5:K6" si="3">K4/2</f>
+      <c r="K5">
+        <f t="shared" ref="K5" si="3">K4/2</f>
         <v>25</v>
       </c>
-      <c r="L5" s="10">
-        <f t="shared" ref="L5:L6" si="4">L4/2</f>
+      <c r="L5">
+        <f t="shared" ref="L5" si="4">L4/2</f>
         <v>25</v>
       </c>
-      <c r="M5" s="10">
-        <f t="shared" ref="M5:M6" si="5">M4/2</f>
+      <c r="M5">
+        <f t="shared" ref="M5" si="5">M4/2</f>
         <v>25</v>
       </c>
-      <c r="N5" s="10">
-        <f t="shared" ref="N5:N6" si="6">N4/2</f>
+      <c r="N5">
+        <f t="shared" ref="N5" si="6">N4/2</f>
         <v>25</v>
       </c>
-      <c r="O5" s="10">
-        <f t="shared" ref="O5:O6" si="7">O4/2</f>
+      <c r="O5">
+        <f t="shared" ref="O5" si="7">O4/2</f>
         <v>25</v>
       </c>
-      <c r="R5" s="70"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
+      <c r="R5" s="45"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="57" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="51" t="s">
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="64" t="s">
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
     </row>
     <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -1891,16 +1871,16 @@
       <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="38" t="s">
         <v>50</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -1915,43 +1895,43 @@
       <c r="M11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="U11" s="18" t="s">
+      <c r="U11" s="15" t="s">
         <v>31</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W11" s="54" t="s">
+      <c r="W11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="X11" s="53" t="s">
+      <c r="X11" s="35" t="s">
         <v>36</v>
       </c>
       <c r="Y11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="16" t="s">
+      <c r="Z11" s="13" t="s">
         <v>38</v>
       </c>
       <c r="AA11" s="5" t="s">
@@ -1974,196 +1954,196 @@
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
         <v>160</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="40">
         <v>1600</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="18">
         <v>63</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="13">
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12">
         <f>J$2/J$3</f>
         <v>1</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12">
         <f>J$2*J$3</f>
         <v>10000</v>
       </c>
-      <c r="N12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="W12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="X12" s="65">
+      <c r="N12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="X12" s="42">
         <v>9.5833333333333298E-2</v>
       </c>
-      <c r="Y12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z12" s="66">
+      <c r="Y12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z12" s="43">
         <v>6.9083605566357997</v>
       </c>
-      <c r="AA12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE12" s="7" t="s">
+      <c r="AA12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
         <v>160</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="40">
         <v>1600</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13">
         <v>1000</v>
       </c>
       <c r="H13">
         <v>250</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="18">
         <v>63</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13">
         <f>I$2/I$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13">
         <f>I$2*I$3</f>
         <v>0.01</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="20">
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="17">
         <f>K$2/K$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="14">
         <f>K$2*K$3</f>
         <v>0.01</v>
       </c>
-      <c r="P13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="22">
+      <c r="P13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13">
         <f>M$2/M$3</f>
         <v>1E-3</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13">
         <f>M$2*M$3</f>
         <v>10</v>
       </c>
-      <c r="T13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="V13" s="19">
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="16">
         <f>O$2/O$3</f>
         <v>1</v>
       </c>
-      <c r="W13" s="23">
+      <c r="W13" s="18">
         <f>O$2*O$3</f>
         <v>10000</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13">
         <v>0.13482600763470201</v>
       </c>
       <c r="Y13">
         <v>6.3720283621781096E-3</v>
       </c>
-      <c r="Z13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA13" s="69">
+      <c r="Z13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA13" s="29">
         <v>1.1633164353256201E-5</v>
       </c>
-      <c r="AB13" s="7" t="s">
+      <c r="AB13" t="s">
         <v>19</v>
       </c>
       <c r="AC13">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="AD13" s="7" t="s">
+      <c r="AD13" t="s">
         <v>19</v>
       </c>
       <c r="AE13">
@@ -2171,88 +2151,88 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="b">
+      <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="7" t="b">
+      <c r="D14" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14">
         <v>160</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="40">
         <v>1600</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14">
         <v>1000</v>
       </c>
       <c r="H14">
         <v>250</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="18">
         <v>63</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14">
         <f>I$2/I$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14">
         <f>I$2*I$3</f>
         <v>0.01</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14">
         <f>J$2/J$3</f>
         <v>1</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14">
         <f>J$2*J$3</f>
         <v>10000</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="17">
         <f>K$2/K$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="14">
         <f>K$2*K$3</f>
         <v>0.01</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14">
         <f>L$2/L$3</f>
         <v>0.01</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14">
         <f>L$2*L$3</f>
         <v>100</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14">
         <f>M$2/M$3</f>
         <v>1E-3</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14">
         <f>M$2*M$3</f>
         <v>10</v>
       </c>
-      <c r="T14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="V14" s="19">
+      <c r="T14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" s="16">
         <f>O$2/O$3</f>
         <v>1</v>
       </c>
-      <c r="W14" s="23">
+      <c r="W14" s="18">
         <f>O$2*O$3</f>
         <v>10000</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14">
         <v>0.12200828732853999</v>
       </c>
       <c r="Y14">
@@ -2270,7 +2250,7 @@
       <c r="AC14">
         <v>0.103887216065776</v>
       </c>
-      <c r="AD14" s="7" t="s">
+      <c r="AD14" t="s">
         <v>19</v>
       </c>
       <c r="AE14">
@@ -2278,90 +2258,90 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7" t="b">
+      <c r="C15" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="b">
+      <c r="D15" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15">
         <v>160</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="40">
         <v>1600</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15">
         <v>1000</v>
       </c>
       <c r="H15">
         <v>250</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="18">
         <v>63</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15">
         <f>I$2/I$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15">
         <f>I$2*I$3</f>
         <v>0.01</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15">
         <f>J$2/J$3</f>
         <v>1</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15">
         <f>J$2*J$3</f>
         <v>10000</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="17">
         <f>K$2/K$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="14">
         <f>K$2*K$3</f>
         <v>0.01</v>
       </c>
-      <c r="P15" s="22">
+      <c r="P15">
         <f>L$2/L$3</f>
         <v>0.01</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="Q15">
         <f>L$2*L$3</f>
         <v>100</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15">
         <f>M$2/M$3</f>
         <v>1E-3</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15">
         <f>M$2*M$3</f>
         <v>10</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15">
         <f>N$2/N$3</f>
         <v>10</v>
       </c>
-      <c r="U15" s="22">
+      <c r="U15">
         <f>N$2*N$3</f>
         <v>100000</v>
       </c>
-      <c r="V15" s="19">
+      <c r="V15" s="16">
         <f>O$2/O$3</f>
         <v>1</v>
       </c>
-      <c r="W15" s="23">
+      <c r="W15" s="18">
         <f>O$2*O$3</f>
         <v>10000</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15">
         <v>0.375835493867756</v>
       </c>
       <c r="Y15">
@@ -2387,111 +2367,111 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="31">
+      <c r="A16" s="23">
         <v>13</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="33" t="b">
+      <c r="C16" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="33" t="b">
+      <c r="D16" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="24">
         <v>160</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="41">
         <v>1600</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="24">
         <v>1000</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="24">
         <v>250</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="28">
         <v>63</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="24">
         <f>I$2/I$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="24">
         <f>I$2*I$3</f>
         <v>0.01</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="24">
         <f>J$2/J$3</f>
         <v>1</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="24">
         <f>J$2*J$3</f>
         <v>10000</v>
       </c>
-      <c r="N16" s="35">
+      <c r="N16" s="26">
         <f>K$2/K$3</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="27">
         <f>K$2*K$3</f>
         <v>0.01</v>
       </c>
-      <c r="P16" s="37">
+      <c r="P16" s="24">
         <f>L$2/L$3</f>
         <v>0.01</v>
       </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="24">
         <f>L$2*L$3</f>
         <v>100</v>
       </c>
-      <c r="R16" s="37">
+      <c r="R16" s="24">
         <f>M$2/M$3</f>
         <v>1E-3</v>
       </c>
-      <c r="S16" s="37">
+      <c r="S16" s="24">
         <f>M$2*M$3</f>
         <v>10</v>
       </c>
-      <c r="T16" s="37">
+      <c r="T16" s="24">
         <f>N$2/N$3</f>
         <v>10</v>
       </c>
-      <c r="U16" s="37">
+      <c r="U16" s="24">
         <f>N$2*N$3</f>
         <v>100000</v>
       </c>
-      <c r="V16" s="34">
+      <c r="V16" s="25">
         <f>O$2/O$3</f>
         <v>1</v>
       </c>
-      <c r="W16" s="38">
+      <c r="W16" s="28">
         <f>O$2*O$3</f>
         <v>10000</v>
       </c>
-      <c r="X16" s="33">
+      <c r="X16" s="24">
         <v>0.34684615824313197</v>
       </c>
-      <c r="Y16" s="33">
+      <c r="Y16" s="24">
         <v>1.2361374045736001E-3</v>
       </c>
-      <c r="Z16" s="33">
+      <c r="Z16" s="24">
         <v>15.509757613602799</v>
       </c>
-      <c r="AA16" s="33">
+      <c r="AA16" s="24">
         <v>8.39843076851305E-4</v>
       </c>
-      <c r="AB16" s="33">
+      <c r="AB16" s="24">
         <v>1.3933649638391801E-2</v>
       </c>
-      <c r="AC16" s="33">
+      <c r="AC16" s="24">
         <v>7.9068326188588802</v>
       </c>
-      <c r="AD16" s="33">
+      <c r="AD16" s="24">
         <v>1286.7961014325101</v>
       </c>
-      <c r="AE16" s="33">
+      <c r="AE16" s="24">
         <v>285.27402734663002</v>
       </c>
     </row>
@@ -2499,87 +2479,87 @@
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
         <v>40</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="40">
         <v>400</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" t="s">
         <v>19</v>
       </c>
       <c r="H17" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="18">
         <v>250</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="68">
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="42">
         <f>Z12/J$4</f>
         <v>0.13816721113271599</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="42">
         <f>Z12*J$4</f>
         <v>345.41802783178997</v>
       </c>
-      <c r="N17" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="S17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="T17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="U17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="W17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="X17" s="65">
+      <c r="N17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" t="s">
+        <v>19</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="42">
         <v>9.5833333333333298E-2</v>
       </c>
-      <c r="Y17" s="25" t="s">
+      <c r="Y17" t="s">
         <v>19</v>
       </c>
       <c r="Z17">
         <v>4.8030357415390297</v>
       </c>
-      <c r="AA17" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB17" s="25" t="s">
+      <c r="AA17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="s">
         <v>19</v>
       </c>
       <c r="AC17" t="s">
@@ -2593,96 +2573,96 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
         <v>40</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="40">
         <v>400</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18">
         <v>4000</v>
       </c>
       <c r="H18">
         <v>1000</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="18">
         <v>250</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="29">
         <f>Y13/I$4</f>
         <v>1.2744056724356219E-4</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18">
         <f>Y13*I$4</f>
         <v>0.31860141810890547</v>
       </c>
-      <c r="L18" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="71">
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="46">
         <f>AA13/K$4</f>
         <v>2.3266328706512403E-7</v>
       </c>
-      <c r="O18" s="72">
+      <c r="O18" s="47">
         <f>AA13*K$4</f>
         <v>5.8165821766281006E-4</v>
       </c>
-      <c r="P18" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="73">
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="29">
         <f>AC13/M$4</f>
         <v>1.017646770983424E-4</v>
       </c>
-      <c r="S18" s="26">
+      <c r="S18">
         <f>AC13*M$4</f>
         <v>0.25441169274585601</v>
       </c>
-      <c r="T18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="19">
+      <c r="T18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="16">
         <f>AE13/O$4</f>
         <v>8.1703137106062196E-2</v>
       </c>
-      <c r="W18" s="23">
+      <c r="W18" s="18">
         <f>AE13*O$4</f>
         <v>204.25784276515549</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18">
         <v>0.120615213788776</v>
       </c>
       <c r="Y18">
         <v>8.97835455410834E-3</v>
       </c>
-      <c r="Z18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA18" s="69">
+      <c r="Z18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="29">
         <v>3.5655254365349703E-5</v>
       </c>
-      <c r="AB18" s="25" t="s">
+      <c r="AB18" t="s">
         <v>19</v>
       </c>
       <c r="AC18">
@@ -2696,100 +2676,100 @@
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>16</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="7" t="b">
+      <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" s="7" t="b">
+      <c r="D19" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19">
         <v>40</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="40">
         <v>400</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19">
         <v>4000</v>
       </c>
       <c r="H19">
         <v>1000</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="18">
         <v>250</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="29">
         <f>Y14/I$4</f>
         <v>1.4303020899975041E-4</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19">
         <f>Y14*I$4</f>
         <v>0.35757552249937602</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="29">
         <f>Z14/J$4</f>
         <v>4.5943552885232997</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19">
         <f>Z14*J$4</f>
         <v>11485.888221308249</v>
       </c>
-      <c r="N19" s="71">
+      <c r="N19" s="46">
         <f>AA14/K$4</f>
         <v>2.6029645774327199E-5</v>
       </c>
-      <c r="O19" s="72">
+      <c r="O19" s="47">
         <f>AA14*K$4</f>
         <v>6.5074114435817995E-2</v>
       </c>
-      <c r="P19" s="74">
+      <c r="P19" s="48">
         <f>AB14/L$4</f>
         <v>4.9290472206784206E-3</v>
       </c>
-      <c r="Q19" s="72">
+      <c r="Q19" s="47">
         <f>AB14*L$4</f>
         <v>12.32261805169605</v>
       </c>
-      <c r="R19" s="73">
+      <c r="R19" s="29">
         <f>AC14/M$4</f>
         <v>2.0777443213155201E-3</v>
       </c>
-      <c r="S19" s="26">
+      <c r="S19">
         <f>AC14*M$4</f>
         <v>5.1943608032888005</v>
       </c>
-      <c r="T19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="U19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V19" s="19">
+      <c r="T19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" s="16">
         <f>AE14/O$4</f>
         <v>7.39942996560288E-2</v>
       </c>
-      <c r="W19" s="23">
+      <c r="W19" s="18">
         <f>AE14*O$4</f>
         <v>184.98574914007199</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19">
         <v>0.120191724473232</v>
       </c>
-      <c r="Y19" s="25">
+      <c r="Y19">
         <v>1.60776127264157E-2</v>
       </c>
-      <c r="Z19" s="21">
+      <c r="Z19" s="14">
         <v>9.4041011484286994</v>
       </c>
-      <c r="AA19" s="42">
+      <c r="AA19" s="29">
         <v>1.64861927136844E-4</v>
       </c>
-      <c r="AB19" s="25">
+      <c r="AB19">
         <v>0.107787132370938</v>
       </c>
       <c r="AC19">
@@ -2803,102 +2783,102 @@
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="7" t="b">
+      <c r="C20" t="b">
         <v>1</v>
       </c>
-      <c r="D20" s="7" t="b">
+      <c r="D20" t="b">
         <v>0</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20">
         <v>40</v>
       </c>
-      <c r="F20" s="62">
+      <c r="F20" s="40">
         <v>400</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20">
         <v>4000</v>
       </c>
       <c r="H20">
         <v>1000</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="18">
         <v>250</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="29">
         <f t="shared" ref="J20:J21" si="8">Y15/I$4</f>
         <v>3.8379426291537998E-5</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20">
         <f t="shared" ref="K20:K21" si="9">Y15*I$4</f>
         <v>9.5948565728844998E-2</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="29">
         <f t="shared" ref="L20:L21" si="10">Z15/J$4</f>
         <v>3.4694990730647399E-2</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20">
         <f t="shared" ref="M20:M21" si="11">Z15*J$4</f>
         <v>86.737476826618504</v>
       </c>
-      <c r="N20" s="71">
+      <c r="N20" s="46">
         <f t="shared" ref="N20:N21" si="12">AA15/K$4</f>
         <v>1.3306930886504141E-4</v>
       </c>
-      <c r="O20" s="72">
+      <c r="O20" s="47">
         <f t="shared" ref="O20:O21" si="13">AA15*K$4</f>
         <v>0.33267327216260351</v>
       </c>
-      <c r="P20" s="74">
+      <c r="P20" s="48">
         <f t="shared" ref="P20:P21" si="14">AB15/L$4</f>
         <v>9.6475289049801401E-3</v>
       </c>
-      <c r="Q20" s="72">
+      <c r="Q20" s="47">
         <f t="shared" ref="Q20:Q21" si="15">AB15*L$4</f>
         <v>24.118822262450351</v>
       </c>
-      <c r="R20" s="73">
+      <c r="R20" s="29">
         <f t="shared" ref="R20:R21" si="16">AC15/M$4</f>
         <v>1.005903739391354E-4</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20">
         <f t="shared" ref="S20:S21" si="17">AC15*M$4</f>
         <v>0.25147593484783853</v>
       </c>
-      <c r="T20" s="73">
+      <c r="T20" s="29">
         <f>AD15/N$4</f>
         <v>57.269924309690197</v>
       </c>
-      <c r="U20" s="26">
+      <c r="U20">
         <f>AD15*N$4</f>
         <v>143174.81077422548</v>
       </c>
-      <c r="V20" s="19">
+      <c r="V20" s="16">
         <f t="shared" ref="V20:V21" si="18">AE15/O$4</f>
         <v>0.91437924624981204</v>
       </c>
-      <c r="W20" s="23">
+      <c r="W20" s="18">
         <f t="shared" ref="W20:W21" si="19">AE15*O$4</f>
         <v>2285.9481156245301</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20">
         <v>0.35035041030597203</v>
       </c>
-      <c r="Y20" s="25">
+      <c r="Y20">
         <v>6.0936401066759402E-4</v>
       </c>
-      <c r="Z20" s="21">
+      <c r="Z20" s="14">
         <v>127.86613403659</v>
       </c>
-      <c r="AA20" s="42">
+      <c r="AA20" s="29">
         <v>2.2795730602265399E-3</v>
       </c>
-      <c r="AB20" s="25">
+      <c r="AB20">
         <v>0.28402288566853101</v>
       </c>
       <c r="AC20">
@@ -2912,111 +2892,111 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="31">
+      <c r="A21" s="23">
         <v>18</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="33" t="b">
+      <c r="C21" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="33" t="b">
+      <c r="D21" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="24">
         <v>40</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="41">
         <v>400</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="24">
         <v>4000</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="24">
         <v>1000</v>
       </c>
-      <c r="I21" s="56">
+      <c r="I21" s="28">
         <v>250</v>
       </c>
-      <c r="J21" s="75">
+      <c r="J21" s="49">
         <f t="shared" si="8"/>
         <v>2.4722748091472E-5</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="24">
         <f t="shared" si="9"/>
         <v>6.1806870228680005E-2</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="30">
         <f t="shared" si="10"/>
         <v>0.31019515227205596</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="24">
         <f t="shared" si="11"/>
         <v>775.48788068013994</v>
       </c>
-      <c r="N21" s="76">
+      <c r="N21" s="50">
         <f t="shared" si="12"/>
         <v>1.67968615370261E-5</v>
       </c>
-      <c r="O21" s="77">
+      <c r="O21" s="51">
         <f t="shared" si="13"/>
         <v>4.1992153842565251E-2</v>
       </c>
-      <c r="P21" s="78">
+      <c r="P21" s="52">
         <f t="shared" si="14"/>
         <v>2.7867299276783603E-4</v>
       </c>
-      <c r="Q21" s="77">
+      <c r="Q21" s="51">
         <f t="shared" si="15"/>
         <v>0.69668248191959004</v>
       </c>
-      <c r="R21" s="79">
+      <c r="R21" s="30">
         <f t="shared" si="16"/>
         <v>0.15813665237717761</v>
       </c>
-      <c r="S21" s="39">
+      <c r="S21" s="24">
         <f t="shared" si="17"/>
         <v>395.34163094294399</v>
       </c>
-      <c r="T21" s="79">
+      <c r="T21" s="30">
         <f>AD16/N$4</f>
         <v>25.735922028650201</v>
       </c>
-      <c r="U21" s="80">
+      <c r="U21" s="41">
         <f>AD16*N$4</f>
         <v>64339.805071625509</v>
       </c>
-      <c r="V21" s="34">
+      <c r="V21" s="25">
         <f t="shared" si="18"/>
         <v>5.7054805469326002</v>
       </c>
-      <c r="W21" s="38">
+      <c r="W21" s="28">
         <f t="shared" si="19"/>
         <v>14263.701367331501</v>
       </c>
-      <c r="X21" s="33">
+      <c r="X21" s="24">
         <v>0.26465531218853899</v>
       </c>
-      <c r="Y21" s="32">
+      <c r="Y21" s="24">
         <v>7.8434654010144603E-3</v>
       </c>
-      <c r="Z21" s="36">
+      <c r="Z21" s="27">
         <v>32.541990747760202</v>
       </c>
-      <c r="AA21" s="41">
+      <c r="AA21" s="30">
         <v>6.5195988316110601E-4</v>
       </c>
-      <c r="AB21" s="32">
+      <c r="AB21" s="24">
         <v>0.10608944340345799</v>
       </c>
-      <c r="AC21" s="33">
+      <c r="AC21" s="24">
         <v>1.7176025320107199E-3</v>
       </c>
-      <c r="AD21" s="33">
+      <c r="AD21" s="24">
         <v>38336.204047126899</v>
       </c>
-      <c r="AE21" s="33">
+      <c r="AE21" s="24">
         <v>109.63113789454999</v>
       </c>
     </row>
@@ -3024,87 +3004,87 @@
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
         <v>10</v>
       </c>
-      <c r="F22" s="62">
+      <c r="F22" s="40">
         <v>100</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" t="s">
         <v>19</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="55">
+      <c r="I22" s="18">
         <v>1000</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="68">
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="42">
         <f>Z17/J$5</f>
         <v>0.19212142966156118</v>
       </c>
-      <c r="M22" s="68">
+      <c r="M22" s="42">
         <f>Z17*J$5</f>
         <v>120.07589353847574</v>
       </c>
-      <c r="N22" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="R22" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="S22" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="T22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="U22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="W22" s="23" t="s">
+      <c r="N22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W22" s="18" t="s">
         <v>19</v>
       </c>
       <c r="X22">
         <v>0.11944444444444401</v>
       </c>
-      <c r="Y22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z22" s="67">
+      <c r="Y22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z22" s="44">
         <v>3.0041056435615601</v>
       </c>
-      <c r="AA22" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB22" s="25" t="s">
+      <c r="AA22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB22" t="s">
         <v>19</v>
       </c>
       <c r="AC22" t="s">
@@ -3118,96 +3098,96 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
         <v>10</v>
       </c>
-      <c r="F23" s="62">
+      <c r="F23" s="40">
         <v>100</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23">
         <v>16000</v>
       </c>
       <c r="H23">
         <v>4000</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="18">
         <v>1000</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="29">
         <f>Y18/I$5</f>
         <v>3.5913418216433358E-4</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23">
         <f>Y18*I$5</f>
         <v>0.2244588638527085</v>
       </c>
-      <c r="L23" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="71">
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="46">
         <f>AA18/K$5</f>
         <v>1.4262101746139882E-6</v>
       </c>
-      <c r="O23" s="72">
+      <c r="O23" s="47">
         <f>AA18*K$5</f>
         <v>8.9138135913374261E-4</v>
       </c>
-      <c r="P23" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="R23" s="73">
+      <c r="P23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="29">
         <f>AC18/M$5</f>
         <v>2.3138134988844039E-3</v>
       </c>
-      <c r="S23" s="26">
+      <c r="S23">
         <f>AC18*M$5</f>
         <v>1.4461334368027525</v>
       </c>
-      <c r="T23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="U23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V23" s="19">
+      <c r="T23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="16">
         <f>AE18/O$5</f>
         <v>0.1160798080679684</v>
       </c>
-      <c r="W23" s="23">
+      <c r="W23" s="18">
         <f>AE18*O$5</f>
         <v>72.549880042480254</v>
       </c>
-      <c r="X23" s="7">
+      <c r="X23">
         <v>0.129573706828434</v>
       </c>
       <c r="Y23">
         <v>5.8045218086709097E-3</v>
       </c>
-      <c r="Z23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA23" s="69">
+      <c r="Z23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA23" s="29">
         <v>2.1662472497624799E-6</v>
       </c>
-      <c r="AB23" s="25" t="s">
+      <c r="AB23" t="s">
         <v>19</v>
       </c>
       <c r="AC23">
@@ -3221,88 +3201,88 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>21</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="7" t="b">
+      <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="7" t="b">
+      <c r="D24" t="b">
         <v>0</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24">
         <v>10</v>
       </c>
-      <c r="F24" s="62">
+      <c r="F24" s="40">
         <v>100</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24">
         <v>16000</v>
       </c>
       <c r="H24">
         <v>4000</v>
       </c>
-      <c r="I24" s="55">
+      <c r="I24" s="18">
         <v>1000</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="29">
         <f>Y19/I$5</f>
         <v>6.4310450905662804E-4</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24">
         <f>Y19*I$5</f>
         <v>0.4019403181603925</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="29">
         <f>Z19/J$5</f>
         <v>0.37616404593714797</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24">
         <f>Z19*J$5</f>
         <v>235.10252871071748</v>
       </c>
-      <c r="N24" s="71">
+      <c r="N24" s="46">
         <f>AA19/K$5</f>
         <v>6.5944770854737598E-6</v>
       </c>
-      <c r="O24" s="72">
+      <c r="O24" s="47">
         <f>AA19*K$5</f>
         <v>4.1215481784211E-3</v>
       </c>
-      <c r="P24" s="74">
+      <c r="P24" s="48">
         <f>AB19/L$5</f>
         <v>4.3114852948375202E-3</v>
       </c>
-      <c r="Q24" s="72">
+      <c r="Q24" s="47">
         <f>AB19*L$5</f>
         <v>2.6946783092734501</v>
       </c>
-      <c r="R24" s="73">
+      <c r="R24" s="29">
         <f>AC19/M$5</f>
         <v>3.2505289535497998E-4</v>
       </c>
-      <c r="S24" s="26">
+      <c r="S24">
         <f>AC19*M$5</f>
         <v>0.20315805959686251</v>
       </c>
-      <c r="T24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="U24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V24" s="19">
+      <c r="T24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="16">
         <f>AE19/O$5</f>
         <v>0.1187887774200736</v>
       </c>
-      <c r="W24" s="23">
+      <c r="W24" s="18">
         <f>AE19*O$5</f>
         <v>74.242985887545998</v>
       </c>
-      <c r="X24" s="7">
+      <c r="X24">
         <v>0.12868836723166699</v>
       </c>
       <c r="Y24">
@@ -3311,7 +3291,7 @@
       <c r="Z24">
         <v>0.51089487687048996</v>
       </c>
-      <c r="AA24" s="69">
+      <c r="AA24" s="29">
         <v>4.5948393911067299E-5</v>
       </c>
       <c r="AB24">
@@ -3328,90 +3308,90 @@
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="9">
         <v>22</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="7" t="b">
+      <c r="C25" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="7" t="b">
+      <c r="D25" t="b">
         <v>0</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25">
         <v>10</v>
       </c>
-      <c r="F25" s="62">
+      <c r="F25" s="40">
         <v>100</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25">
         <v>16000</v>
       </c>
       <c r="H25">
         <v>4000</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="18">
         <v>1000</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="29">
         <f>Y20/I$5</f>
         <v>2.437456042670376E-5</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25">
         <f>Y20*I$5</f>
         <v>1.5234100266689851E-2</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="29">
         <f>Z20/J$5</f>
         <v>5.1146453614635998</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25">
         <f>Z20*J$5</f>
         <v>3196.6533509147498</v>
       </c>
-      <c r="N25" s="71">
+      <c r="N25" s="46">
         <f>AA20/K$5</f>
         <v>9.1182922409061603E-5</v>
       </c>
-      <c r="O25" s="72">
+      <c r="O25" s="47">
         <f>AA20*K$5</f>
         <v>5.6989326505663497E-2</v>
       </c>
-      <c r="P25" s="74">
+      <c r="P25" s="48">
         <f>AB20/L$5</f>
         <v>1.1360915426741241E-2</v>
       </c>
-      <c r="Q25" s="72">
+      <c r="Q25" s="47">
         <f>AB20*L$5</f>
         <v>7.1005721417132754</v>
       </c>
-      <c r="R25" s="73">
+      <c r="R25" s="29">
         <f>AC20/M$5</f>
         <v>3.7709686269310322E-3</v>
       </c>
-      <c r="S25" s="26">
+      <c r="S25">
         <f>AC20*M$5</f>
         <v>2.3568553918318953</v>
       </c>
-      <c r="T25" s="73">
+      <c r="T25" s="29">
         <f>AD20/N$5</f>
         <v>26.611013353675439</v>
       </c>
-      <c r="U25" s="26">
+      <c r="U25">
         <f>AD20*N$5</f>
         <v>16631.883346047151</v>
       </c>
-      <c r="V25" s="19">
+      <c r="V25" s="16">
         <f>AE20/O$5</f>
         <v>0.90127805124635207</v>
       </c>
-      <c r="W25" s="23">
+      <c r="W25" s="18">
         <f>AE20*O$5</f>
         <v>563.29878202896998</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25">
         <v>0.46669992536550797</v>
       </c>
       <c r="Y25">
@@ -3437,111 +3417,111 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26" s="10">
         <v>23</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="7" t="b">
+      <c r="C26" t="b">
         <v>1</v>
       </c>
-      <c r="D26" s="7" t="b">
+      <c r="D26" t="b">
         <v>1</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26">
         <v>10</v>
       </c>
-      <c r="F26" s="62">
+      <c r="F26" s="40">
         <v>100</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26">
         <v>16000</v>
       </c>
       <c r="H26">
         <v>4000</v>
       </c>
-      <c r="I26" s="55">
+      <c r="I26" s="18">
         <v>1000</v>
       </c>
-      <c r="J26" s="40">
+      <c r="J26" s="29">
         <f t="shared" ref="J26" si="20">Y21/I$5</f>
         <v>3.137386160405784E-4</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26">
         <f t="shared" ref="K26" si="21">Y21*I$5</f>
         <v>0.1960866350253615</v>
       </c>
-      <c r="L26" s="40">
+      <c r="L26" s="29">
         <f t="shared" ref="L26" si="22">Z21/J$5</f>
         <v>1.3016796299104081</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26">
         <f t="shared" ref="M26" si="23">Z21*J$5</f>
         <v>813.54976869400502</v>
       </c>
-      <c r="N26" s="71">
+      <c r="N26" s="46">
         <f t="shared" ref="N26" si="24">AA21/K$5</f>
         <v>2.6078395326444242E-5</v>
       </c>
-      <c r="O26" s="72">
+      <c r="O26" s="47">
         <f t="shared" ref="O26" si="25">AA21*K$5</f>
         <v>1.6298997079027652E-2</v>
       </c>
-      <c r="P26" s="74">
+      <c r="P26" s="48">
         <f t="shared" ref="P26" si="26">AB21/L$5</f>
         <v>4.2435777361383197E-3</v>
       </c>
-      <c r="Q26" s="72">
+      <c r="Q26" s="47">
         <f t="shared" ref="Q26" si="27">AB21*L$5</f>
         <v>2.6522360850864497</v>
       </c>
-      <c r="R26" s="73">
+      <c r="R26" s="29">
         <f t="shared" ref="R26" si="28">AC21/M$5</f>
         <v>6.8704101280428798E-5</v>
       </c>
-      <c r="S26" s="26">
+      <c r="S26">
         <f t="shared" ref="S26" si="29">AC21*M$5</f>
         <v>4.2940063300267999E-2</v>
       </c>
-      <c r="T26" s="73">
+      <c r="T26" s="29">
         <f>AD21/N$5</f>
         <v>1533.4481618850759</v>
       </c>
-      <c r="U26" s="26">
+      <c r="U26">
         <f>AD21*N$5</f>
         <v>958405.10117817251</v>
       </c>
-      <c r="V26" s="19">
+      <c r="V26" s="16">
         <f t="shared" ref="V26" si="30">AE21/O$5</f>
         <v>4.3852455157819996</v>
       </c>
-      <c r="W26" s="23">
+      <c r="W26" s="18">
         <f t="shared" ref="W26" si="31">AE21*O$5</f>
         <v>2740.7784473637498</v>
       </c>
-      <c r="X26" s="7">
+      <c r="X26">
         <v>0.151549683075583</v>
       </c>
-      <c r="Y26" s="13">
+      <c r="Y26">
         <v>1.08193051300563E-2</v>
       </c>
-      <c r="Z26" s="28">
+      <c r="Z26" s="20">
         <v>17.2880996928148</v>
       </c>
-      <c r="AA26" s="40">
+      <c r="AA26" s="29">
         <v>1.2416053275586499E-3</v>
       </c>
-      <c r="AB26" s="13">
+      <c r="AB26">
         <v>0.26863450982301901</v>
       </c>
-      <c r="AC26" s="7">
+      <c r="AC26">
         <v>2.1124683924387301E-2</v>
       </c>
-      <c r="AD26" s="7">
+      <c r="AD26">
         <v>553589.06574087404</v>
       </c>
-      <c r="AE26" s="7">
+      <c r="AE26">
         <v>58.397317625981898</v>
       </c>
     </row>
@@ -3593,6 +3573,21 @@
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D4D87-F3E3-4353-B795-9EE4D80336A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD77853D-6C2E-47DF-AC34-1F0D4B5346A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
+    <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="70">
   <si>
     <t>Scenario</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>!!! NO PCA</t>
+  </si>
+  <si>
+    <t>&lt;- [1.1056452  0.77839947 0.6102698  0.51495486 0.42832494 0.34158167], 0.30294085 1.3391844</t>
+  </si>
+  <si>
+    <t>vs [0.30793804 0.13396928 0.08810262 0.05079819 0.02864114 0.01859022], 0.016247319 0.5112661</t>
+  </si>
+  <si>
+    <t>0.7155123 -&gt; 0.92525244 vs 0.7304433</t>
   </si>
 </sst>
 </file>
@@ -1604,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3BE8-5908-4BE5-BD92-5B34615E80E7}">
-  <dimension ref="A1:AE47"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3525,69 +3534,82 @@
         <v>58.397317625981898</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/4-Extend.xlsx
+++ b/4-Extend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks_000\Desktop\Mentorship\!GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD77853D-6C2E-47DF-AC34-1F0D4B5346A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D894CF75-5665-4C52-BDC0-DF97F62E5EE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
+    <workbookView xWindow="768" yWindow="576" windowWidth="21828" windowHeight="12384" xr2:uid="{FA779093-122C-4A05-86C7-F98EA3A699EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="54">
   <si>
     <t>Scenario</t>
   </si>
@@ -183,58 +183,10 @@
     <t>Model size</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>Different model seed</t>
-  </si>
-  <si>
-    <t>less samples?</t>
-  </si>
-  <si>
     <t>re_seeds</t>
   </si>
   <si>
-    <t>SSC: parameters (rho) + implementation</t>
-  </si>
-  <si>
-    <t>Dynamic stopping</t>
-  </si>
-  <si>
-    <t>Increased model size</t>
-  </si>
-  <si>
-    <t>Narrow more aggressively</t>
-  </si>
-  <si>
-    <t>More rand on last layer</t>
-  </si>
-  <si>
-    <t>Init from prev optimum</t>
-  </si>
-  <si>
-    <t>sp_minimize</t>
-  </si>
-  <si>
     <t>[100, 130)</t>
-  </si>
-  <si>
-    <t>Don't repeat pre-train</t>
-  </si>
-  <si>
-    <t>Remove lr decay?</t>
-  </si>
-  <si>
-    <t>!!! NO PCA</t>
-  </si>
-  <si>
-    <t>&lt;- [1.1056452  0.77839947 0.6102698  0.51495486 0.42832494 0.34158167], 0.30294085 1.3391844</t>
-  </si>
-  <si>
-    <t>vs [0.30793804 0.13396928 0.08810262 0.05079819 0.02864114 0.01859022], 0.016247319 0.5112661</t>
-  </si>
-  <si>
-    <t>0.7155123 -&gt; 0.92525244 vs 0.7304433</t>
   </si>
 </sst>
 </file>
@@ -1613,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D3BE8-5908-4BE5-BD92-5B34615E80E7}">
-  <dimension ref="A1:AE49"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,7 +1598,7 @@
         <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>44</v>
@@ -1687,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>45</v>
@@ -3532,84 +3484,6 @@
       </c>
       <c r="AE26">
         <v>58.397317625981898</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
